--- a/src/attributions/attributions_saliency_traj_349.xlsx
+++ b/src/attributions/attributions_saliency_traj_349.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01314207352697849</v>
+        <v>9.130253602052107e-06</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002262748079374433</v>
+        <v>8.323579095304012e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01389640104025602</v>
+        <v>1.376294221699936e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002001004526391625</v>
+        <v>4.648383765015751e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006278184708207846</v>
+        <v>3.249688234063797e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003403103444725275</v>
+        <v>0.0001127114373957738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002091371919959784</v>
+        <v>1.963365866686217e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004829726181924343</v>
+        <v>4.321004234952852e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004080458544194698</v>
+        <v>8.029635864659213e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01390813570469618</v>
+        <v>2.957591823360417e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001280156895518303</v>
+        <v>6.957604637136683e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01256188750267029</v>
+        <v>1.833630267356057e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002622342202812433</v>
+        <v>4.008270479971543e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001720199827104807</v>
+        <v>3.125332659692504e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002130993874743581</v>
+        <v>7.727537013124675e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001620387309230864</v>
+        <v>1.9881652406184e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00141835305839777</v>
+        <v>1.560874079586938e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005444140639156103</v>
+        <v>1.267280254069192e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00170422438532114</v>
+        <v>3.204337417628267e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005131908692419529</v>
+        <v>2.340233777431422e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0006666682311333716</v>
+        <v>1.485362008679658e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00263393553905189</v>
+        <v>4.963748096997733e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00558848213404417</v>
+        <v>2.34746839851141e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001384137314744294</v>
+        <v>1.869923835329246e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003560543525964022</v>
+        <v>1.957509448402561e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001769462134689093</v>
+        <v>2.595930709503591e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002317209495231509</v>
+        <v>5.883153789909557e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0006933974800631404</v>
+        <v>1.987468385777902e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001041183713823557</v>
+        <v>5.857502856088104e-06</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0003566136001609266</v>
+        <v>1.872402572189458e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0004437221796251833</v>
+        <v>1.199558664666256e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0006318148225545883</v>
+        <v>6.108100933488458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0008060982218012214</v>
+        <v>1.060735667124391e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001704445341601968</v>
+        <v>7.878745236666873e-06</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004765043966472149</v>
+        <v>1.18389407361974e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.002222168026492</v>
+        <v>1.353353218291886e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.003286367980763316</v>
+        <v>1.441709264327073e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.003638917813077569</v>
+        <v>1.039721155393636e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001268215011805296</v>
+        <v>9.620945093047339e-06</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.004575901664793491</v>
+        <v>4.60213186670444e-07</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0008322204230353236</v>
+        <v>2.21675363718532e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.002662024693563581</v>
+        <v>2.590583608252928e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0002999039716087282</v>
+        <v>8.944981345848646e-06</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0007419525063596666</v>
+        <v>1.916547807923052e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0003338514652568847</v>
+        <v>5.501605301105883e-06</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.004489799961447716</v>
+        <v>5.126768883201294e-06</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.006702753715217113</v>
+        <v>4.226923920214176e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.006371966563165188</v>
+        <v>1.254588369192788e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0008277672459371388</v>
+        <v>2.599765139166266e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.001192056806758046</v>
+        <v>2.763941665762104e-05</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.001962164649739861</v>
+        <v>7.458787149516866e-05</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.003937378991395235</v>
+        <v>2.723241050262004e-05</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.001363686285912991</v>
+        <v>3.886316335410811e-06</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.002693798393011093</v>
+        <v>1.287892064283369e-05</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.00313794519752264</v>
+        <v>1.619881913939025e-06</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0004004575312137604</v>
+        <v>3.366688906680793e-05</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004125918261706829</v>
+        <v>9.018092896440066e-06</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0008807822596281767</v>
+        <v>6.022095021762652e-06</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003575698938220739</v>
+        <v>6.645528628723696e-06</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0006805015727877617</v>
+        <v>1.091892863769317e-05</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0006299192318692803</v>
+        <v>2.92592926598445e-06</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.005273066461086273</v>
+        <v>1.421477804797178e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0009712520986795425</v>
+        <v>5.847350621479563e-07</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001445142552256584</v>
+        <v>1.219858313561417e-05</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0003053191467188299</v>
+        <v>1.216133114212425e-05</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.003639443544670939</v>
+        <v>1.143006920756306e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001016107038594782</v>
+        <v>1.34425972646568e-05</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003920360468327999</v>
+        <v>4.761975560541032e-06</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.001310477964580059</v>
+        <v>8.824042197375093e-06</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.001970500452443957</v>
+        <v>8.286044248961844e-06</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002145085483789444</v>
+        <v>8.205994163290597e-06</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0008766269311308861</v>
+        <v>1.06415682239458e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.006156560499221087</v>
+        <v>7.467332579835784e-06</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.001194062060676515</v>
+        <v>2.51879700954305e-05</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.003253447590395808</v>
+        <v>1.179137416329468e-05</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003100497648119926</v>
+        <v>1.87194709724281e-05</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.003503845538944006</v>
+        <v>1.225870073540136e-05</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.003737511811777949</v>
+        <v>4.148924199398607e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.002785990945994854</v>
+        <v>5.254500138107687e-06</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.003307656617835164</v>
+        <v>7.412901140924077e-06</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.000500597758218646</v>
+        <v>6.162229055917123e-07</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.002725082449615002</v>
+        <v>7.491037649742793e-06</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.001359420246444643</v>
+        <v>5.645641522278311e-06</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.001975156366825104</v>
+        <v>3.273532684033853e-06</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0004607121227309108</v>
+        <v>5.586862243944779e-06</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0008750229608267546</v>
+        <v>7.214230208774097e-06</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.000624298641923815</v>
+        <v>1.618768328626174e-05</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0007233417709358037</v>
+        <v>6.803441465308424e-06</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0008965812157839537</v>
+        <v>1.067374796548393e-05</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0004407981759868562</v>
+        <v>1.412465735484147e-07</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001287939725443721</v>
+        <v>1.011001495498931e-05</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.000420251046307385</v>
+        <v>1.407099148309499e-06</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001192055060528219</v>
+        <v>6.725032562826527e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.001101296860724688</v>
+        <v>7.332168934226502e-06</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.003903854405507445</v>
+        <v>1.074455030902755e-05</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001468983478844166</v>
+        <v>2.70264763457817e-06</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0040461216121912</v>
+        <v>1.584424808243057e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.004539511166512966</v>
+        <v>1.907632758957334e-05</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.004389497917145491</v>
+        <v>1.417503335687798e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.002359197475016117</v>
+        <v>2.922821977335843e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.001079649664461613</v>
+        <v>8.799906936474144e-06</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.002347146160900593</v>
+        <v>2.784368007269222e-06</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0006637872429564595</v>
+        <v>7.630149411852472e-06</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.002249730285257101</v>
+        <v>3.281024874013383e-07</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0003775715886149555</v>
+        <v>1.87881123565603e-05</v>
       </c>
       <c r="DB3" t="n">
-        <v>7.078055932652205e-05</v>
+        <v>5.125692723595421e-07</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0008631875971332192</v>
+        <v>1.591661202837713e-05</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0006499500595964491</v>
+        <v>1.324408458458493e-07</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.002696339040994644</v>
+        <v>1.378535853291396e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.008220360614359379</v>
+        <v>1.363529554510023e-05</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.002948184031993151</v>
+        <v>7.633570930920541e-06</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.002523446455597878</v>
+        <v>2.477172165527008e-05</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.002507307101041079</v>
+        <v>1.950781734194607e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>7.57709494791925e-05</v>
+        <v>2.066605702566449e-06</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0007388389785774052</v>
+        <v>1.527918584542931e-06</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.003509995527565479</v>
+        <v>4.010798875242472e-05</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.003268657252192497</v>
+        <v>1.194945161842043e-05</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0005460748798213899</v>
+        <v>8.39184667711379e-06</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001524006249383092</v>
+        <v>8.959867045632564e-06</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.00238410453312099</v>
+        <v>1.389327735523693e-05</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001636126544326544</v>
+        <v>8.673887350596488e-06</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0004828654346056283</v>
+        <v>9.905010301736183e-06</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.001058719120919704</v>
+        <v>1.271974099381623e-07</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.00403693038970232</v>
+        <v>6.980180387472501e-06</v>
       </c>
       <c r="DU3" t="n">
-        <v>9.225008398061618e-06</v>
+        <v>4.744256330013741e-06</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0009030688088387251</v>
+        <v>2.040625304289279e-06</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001360183930955827</v>
+        <v>1.935377213158063e-06</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.00127731915563345</v>
+        <v>2.247915745101636e-06</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0008940420811995864</v>
+        <v>2.23208689931198e-06</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0006613162695430219</v>
+        <v>2.200730159529485e-05</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0031360755674541</v>
+        <v>1.173122564068763e-05</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0003708821604959667</v>
+        <v>6.411481081158854e-06</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0009549101232551038</v>
+        <v>1.412586243532132e-07</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003147106850519776</v>
+        <v>1.107898606278468e-05</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001696984632872045</v>
+        <v>2.958881623271736e-06</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.003875662572681904</v>
+        <v>1.781378841769765e-06</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001574285211972892</v>
+        <v>1.979523858608445e-06</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.002593480283394456</v>
+        <v>6.702461178065278e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0005499898688867688</v>
+        <v>2.140585365850711e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>6.014655809849501e-06</v>
+        <v>1.296249592996901e-06</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.001843081437982619</v>
+        <v>1.932051600306295e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.002138202544301748</v>
+        <v>5.93321328778984e-06</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.002652195515111089</v>
+        <v>8.064363100857008e-06</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001082341768778861</v>
+        <v>5.58382089366205e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.001690284814685583</v>
+        <v>3.340117018524325e-07</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001578876515850425</v>
+        <v>1.472557642046013e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.002177974209189415</v>
+        <v>4.535130756266881e-06</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.004089453723281622</v>
+        <v>7.41427720640786e-06</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.001666766009293497</v>
+        <v>4.549829100142233e-07</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00301913358271122</v>
+        <v>1.112719655793626e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.003983628936111927</v>
+        <v>9.154803592537064e-06</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0003172496799379587</v>
+        <v>3.339275281177834e-05</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001992439618334174</v>
+        <v>2.837288093360257e-06</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.002811552723869681</v>
+        <v>4.419346169015625e-06</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0005480812396854162</v>
+        <v>5.245595275482628e-06</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.002171664731577039</v>
+        <v>1.549198373140825e-06</v>
       </c>
       <c r="FA3" t="n">
-        <v>8.163462916854769e-05</v>
+        <v>6.189115083543584e-06</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.001190370880067348</v>
+        <v>2.831230176525423e-06</v>
       </c>
       <c r="FC3" t="n">
-        <v>3.039950388483703e-05</v>
+        <v>1.400913697580108e-05</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0001681920257396996</v>
+        <v>8.502293894707691e-06</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001123851980082691</v>
+        <v>1.169058850791771e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0009187719551846385</v>
+        <v>1.612252162885852e-07</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.002608425449579954</v>
+        <v>2.006412614719011e-06</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.003500025719404221</v>
+        <v>1.277355113415979e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001124739297665656</v>
+        <v>6.59414445181028e-06</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.004133843816816807</v>
+        <v>3.371086859260686e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0005070405313745141</v>
+        <v>6.166701041365741e-06</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.003497932106256485</v>
+        <v>1.880573108792305e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.000617095036432147</v>
+        <v>8.387060006498359e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.001614470616914332</v>
+        <v>8.031095603655558e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.002329784911125898</v>
+        <v>1.081984555639792e-05</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0005228561931289732</v>
+        <v>9.590596164343879e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.006238964386284351</v>
+        <v>4.621264451998286e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.001493166550062597</v>
+        <v>6.244970791158266e-06</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.002362221712246537</v>
+        <v>2.901608240790665e-05</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.006394332274794579</v>
+        <v>2.37640651903348e-05</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.00196406408213079</v>
+        <v>3.435817052377388e-05</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.001946964766830206</v>
+        <v>1.413686914020218e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0008154917741194367</v>
+        <v>7.084875505825039e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001714088139124215</v>
+        <v>1.656433028074389e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001003581215627491</v>
+        <v>9.876443073153496e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.004823802504688501</v>
+        <v>4.388355137052713e-06</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0002814988256432116</v>
+        <v>6.526724064315204e-06</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.003300480078905821</v>
+        <v>6.061251042410731e-06</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001196226570755243</v>
+        <v>3.117677988484502e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.005693646147847176</v>
+        <v>4.95890617457917e-07</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0009509330848231912</v>
+        <v>2.826968193403445e-05</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.001723661785945296</v>
+        <v>1.278248601011001e-05</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0009858667617663741</v>
+        <v>3.998831289209193e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01176953129470348</v>
+        <v>7.53638540462731e-10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02043230459094048</v>
+        <v>9.388642085994547e-10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01321672461926937</v>
+        <v>6.46469988652143e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01869157142937183</v>
+        <v>2.305499680055334e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02162747830152512</v>
+        <v>1.170482377688131e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006293082609772682</v>
+        <v>3.177266449938543e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01120628695935011</v>
+        <v>3.063230225031077e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005385825876146555</v>
+        <v>1.738444055376931e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02160189859569073</v>
+        <v>1.364231505540658e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005408861674368382</v>
+        <v>1.438880542492527e-10</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01482397224754095</v>
+        <v>8.173179910642148e-10</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01675261557102203</v>
+        <v>4.209187443038331e-10</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01219937391579151</v>
+        <v>5.338799402565542e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01623082160949707</v>
+        <v>5.686074944222241e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006021583918482065</v>
+        <v>2.171630875125174e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006568774115294218</v>
+        <v>6.015000719727936e-10</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.003773812903091311</v>
+        <v>1.642094904497071e-09</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0242381077259779</v>
+        <v>7.976826837952089e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003594553796574473</v>
+        <v>8.548872720837153e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005231689661741257</v>
+        <v>2.482925531843705e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003321310272440314</v>
+        <v>5.065288466443718e-11</v>
       </c>
       <c r="V4" t="n">
-        <v>0.006981759332120419</v>
+        <v>4.096537553621715e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01285643316805363</v>
+        <v>6.217684700438042e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003826215397566557</v>
+        <v>6.683857911582436e-10</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003498320933431387</v>
+        <v>8.128836492815594e-11</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003948993049561977</v>
+        <v>3.209451870933577e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004798343870788813</v>
+        <v>9.512507448405927e-11</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001024799654260278</v>
+        <v>6.466905344559848e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.006275261286646128</v>
+        <v>2.855376768362561e-10</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001386272720992565</v>
+        <v>7.138119539895627e-10</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.002442026976495981</v>
+        <v>6.02644434355426e-10</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0006353616481646895</v>
+        <v>2.637583484954575e-10</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0012535898713395</v>
+        <v>2.367793461299783e-10</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.005351393017917871</v>
+        <v>1.96168692401244e-10</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0008335004094988108</v>
+        <v>3.070894927237333e-11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0150234792381525</v>
+        <v>3.312682350653517e-10</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.002014262368902564</v>
+        <v>2.275828969722227e-10</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.002027419162914157</v>
+        <v>2.529953191388046e-10</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.00143952970393002</v>
+        <v>1.963084972356199e-10</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002949642250314355</v>
+        <v>3.248717961312764e-10</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0009161846246570349</v>
+        <v>4.006435738723724e-10</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01008131727576256</v>
+        <v>8.024406694673303e-10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.002235953928902745</v>
+        <v>2.659872877508462e-10</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.007393786683678627</v>
+        <v>5.461270324857992e-11</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.002709702355787158</v>
+        <v>2.99058638963956e-10</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.003380262060090899</v>
+        <v>6.527668405809095e-10</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.009988827630877495</v>
+        <v>9.453156035732491e-10</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.006431503221392632</v>
+        <v>5.690731219587519e-10</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.007694467902183533</v>
+        <v>7.80013886814146e-10</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.005777477752417326</v>
+        <v>1.810406047297874e-09</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01707199402153492</v>
+        <v>2.229483264670762e-09</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.003155638230964541</v>
+        <v>4.691618205043824e-10</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0004515535547398031</v>
+        <v>3.576806628657891e-10</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.008798799477517605</v>
+        <v>8.198768330913708e-10</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.002709601074457169</v>
+        <v>4.744332704476051e-10</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.002626371802762151</v>
+        <v>3.007455950942983e-10</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001671528210863471</v>
+        <v>8.028855358332976e-13</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.004063761327415705</v>
+        <v>5.635321098651502e-10</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.004721396137028933</v>
+        <v>6.866715529518785e-11</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.005714365281164646</v>
+        <v>4.033890443899679e-10</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01053414307534695</v>
+        <v>5.197599017847665e-10</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.003143430687487125</v>
+        <v>3.395455305810202e-10</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.000931998947635293</v>
+        <v>5.105156297702251e-10</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.001481458311900496</v>
+        <v>5.885679166262037e-10</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.002663908991962671</v>
+        <v>4.495495642409253e-10</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.003153143683448434</v>
+        <v>6.080662640073342e-10</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.003764585824683309</v>
+        <v>7.344152369581636e-11</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0008433987968601286</v>
+        <v>6.85033141323288e-10</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.003166635753586888</v>
+        <v>9.19993525805296e-11</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.002684046979993582</v>
+        <v>2.039102775519552e-10</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.007753388490527868</v>
+        <v>4.749646786983419e-10</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.005669091828167439</v>
+        <v>5.598621566349493e-11</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.001617532805539668</v>
+        <v>2.960776068761106e-10</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.005417550448328257</v>
+        <v>2.294136408620417e-11</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.001770546310581267</v>
+        <v>1.272837113486247e-10</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.004860448185354471</v>
+        <v>3.382250035599554e-10</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.008398165926337242</v>
+        <v>1.012324668536735e-09</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0009637029143050313</v>
+        <v>1.407863603475334e-09</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.002369080670177937</v>
+        <v>1.038259270225161e-10</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.009028883650898933</v>
+        <v>6.412034792013799e-10</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.01308275666087866</v>
+        <v>6.569579602544451e-11</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.002465537283569574</v>
+        <v>4.931306057942564e-11</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.002297799335792661</v>
+        <v>2.919295083447793e-10</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.002670699264854193</v>
+        <v>6.475427138941114e-11</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.002151580760255456</v>
+        <v>8.509731114214603e-11</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.002335376804694533</v>
+        <v>5.993427976136445e-11</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.004314984194934368</v>
+        <v>5.766160326992065e-10</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.001448279246687889</v>
+        <v>2.686988964661907e-10</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.002123644109815359</v>
+        <v>3.68640618031435e-10</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.002666315529495478</v>
+        <v>3.228493861140436e-12</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.001289680600166321</v>
+        <v>9.100470377276793e-12</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0002893198397941887</v>
+        <v>5.308650186108821e-10</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.005622850731015205</v>
+        <v>1.021231640918607e-10</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0001404059585183859</v>
+        <v>1.005855065905337e-09</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.001695824903436005</v>
+        <v>6.237920180396372e-10</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.003043619217351079</v>
+        <v>4.739591497049389e-10</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.003360012546181679</v>
+        <v>2.576570623524788e-10</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.002429507207125425</v>
+        <v>2.792526765382775e-10</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.003001447767019272</v>
+        <v>5.036611683273406e-10</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.003301640972495079</v>
+        <v>1.368406221669005e-10</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.00171277008485049</v>
+        <v>3.436731177419716e-10</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0007681953720748425</v>
+        <v>7.42144817822421e-11</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.002472475171089172</v>
+        <v>6.392300577751087e-11</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.004974995739758015</v>
+        <v>3.176985757802342e-11</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.005113221239298582</v>
+        <v>6.348588321714033e-10</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.001492412062361836</v>
+        <v>3.065986908801221e-10</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.001210626214742661</v>
+        <v>5.198057539956835e-10</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.004569141194224358</v>
+        <v>1.242355940345163e-10</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0008153670933097601</v>
+        <v>9.197560768559043e-11</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.005113936029374599</v>
+        <v>3.379725388441557e-10</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.005899316165596247</v>
+        <v>3.991702246519679e-10</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.01313605718314648</v>
+        <v>9.761184083245666e-10</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.006615810096263885</v>
+        <v>1.297344565109881e-09</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.003769587259739637</v>
+        <v>1.757238243804693e-10</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01170882768929005</v>
+        <v>3.555590266657305e-10</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.004844863433390856</v>
+        <v>1.116352565944112e-09</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.00185248302295804</v>
+        <v>1.325639181759541e-10</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.00088664167560637</v>
+        <v>1.169017521673865e-10</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.001562156248837709</v>
+        <v>1.42806100278392e-10</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.002282504690811038</v>
+        <v>4.897410255111367e-10</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.004004777874797583</v>
+        <v>1.040436348187512e-10</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0002219814923591912</v>
+        <v>1.7871039370565e-10</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.002225975040346384</v>
+        <v>1.092355927934108e-10</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.001801809179596603</v>
+        <v>1.053039253018362e-10</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.003126433119177818</v>
+        <v>1.17497594986915e-10</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.004913280718028545</v>
+        <v>5.263236721453346e-11</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0001988085568882525</v>
+        <v>2.519693065305972e-10</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0005129767814651132</v>
+        <v>2.69601507785211e-10</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.002751953434199095</v>
+        <v>5.65640811966972e-10</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.004284356255084276</v>
+        <v>3.306025453397865e-10</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0007706264150328934</v>
+        <v>4.822212074095944e-10</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.001400438020937145</v>
+        <v>3.102068046878514e-10</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.001664276816882193</v>
+        <v>2.609495952654584e-10</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.00252400035969913</v>
+        <v>5.46957035219009e-10</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.006056657992303371</v>
+        <v>2.602092846748505e-11</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.001768059679307044</v>
+        <v>1.48004958983039e-12</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.000350463087670505</v>
+        <v>3.386117775061592e-10</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.003058742266148329</v>
+        <v>1.004734490051007e-10</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0008048232411965728</v>
+        <v>4.047452373256988e-10</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.004048134200274944</v>
+        <v>5.089787480372365e-10</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.002933482872322202</v>
+        <v>3.764333844635814e-10</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.002451315056532621</v>
+        <v>1.043280739576602e-11</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.001209267182275653</v>
+        <v>7.109670491223241e-11</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.002478979527950287</v>
+        <v>2.449824787476018e-10</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0006784863071516156</v>
+        <v>2.537448862138802e-10</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.006294518709182739</v>
+        <v>2.493591097496584e-11</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.00117315468378365</v>
+        <v>6.251581197158629e-11</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.009707663208246231</v>
+        <v>3.424126954199025e-11</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.001478019403293729</v>
+        <v>1.025960011391547e-10</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.007397222332656384</v>
+        <v>6.189398993328155e-10</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.006629383191466331</v>
+        <v>3.167279494231678e-10</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.005326665006577969</v>
+        <v>6.85880241491077e-10</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.003747666254639626</v>
+        <v>1.805167126889273e-11</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.002221639500930905</v>
+        <v>1.394673682098002e-10</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.002713866764679551</v>
+        <v>2.914511965101951e-10</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.002071085618808866</v>
+        <v>2.17837942129151e-10</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0004425016813911498</v>
+        <v>2.253851619227198e-11</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.002599297324195504</v>
+        <v>4.044010265547016e-11</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.003212674055248499</v>
+        <v>5.32211386072845e-10</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.002009891904890537</v>
+        <v>1.439533214853128e-10</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0003659330541267991</v>
+        <v>5.303200656392448e-10</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.005955604836344719</v>
+        <v>1.76519535100006e-10</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.002881974214687943</v>
+        <v>1.373707814167346e-10</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0006291143945418298</v>
+        <v>6.723958057008872e-10</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.001886269077658653</v>
+        <v>3.661690395340145e-10</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.005003920756280422</v>
+        <v>5.256994839442086e-10</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.002255919389426708</v>
+        <v>4.336351833167384e-10</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.001230284804478288</v>
+        <v>6.725245915717437e-10</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0003990167751908302</v>
+        <v>6.843309946491516e-11</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.009036362171173096</v>
+        <v>4.749733939490852e-11</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.004693521186709404</v>
+        <v>2.211001243201949e-10</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.002332435455173254</v>
+        <v>2.838738688559772e-10</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.002959312405437231</v>
+        <v>8.694582276369545e-10</v>
       </c>
       <c r="FR4" t="n">
-        <v>4.644016735255718e-05</v>
+        <v>4.756381399850795e-11</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.002078162971884012</v>
+        <v>7.435810300826518e-10</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.008169815875589848</v>
+        <v>5.95304250339268e-10</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0002511098864488304</v>
+        <v>6.785630390915287e-10</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01250162534415722</v>
+        <v>2.104073859587885e-12</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.005187250673770905</v>
+        <v>1.263270599238808e-10</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.003034796100109816</v>
+        <v>3.469957654544942e-11</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.002236685715615749</v>
+        <v>2.012385258431948e-10</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.00202067568898201</v>
+        <v>8.075930202355863e-11</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.004588506184518337</v>
+        <v>1.067483323957674e-10</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.003061638679355383</v>
+        <v>8.056960654201362e-10</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.004130690824240446</v>
+        <v>1.482414191400494e-09</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.001337789697572589</v>
+        <v>3.118467151175253e-10</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0006199564086273313</v>
+        <v>5.884536746769697e-10</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.006944480817764997</v>
+        <v>1.693800655289124e-11</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.001131778350099921</v>
+        <v>9.272006079585893e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007886921986937523</v>
+        <v>0.007017202209681273</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02103867568075657</v>
+        <v>0.004643565509468317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001451750402338803</v>
+        <v>0.005960437469184399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01919021643698215</v>
+        <v>0.009464064612984657</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03244828805327415</v>
+        <v>0.001786021632142365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07365880906581879</v>
+        <v>0.002752989763393998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0007454683072865009</v>
+        <v>0.00118604744784534</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02149111777544022</v>
+        <v>0.004970703274011612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0127004636451602</v>
+        <v>0.0003961466136388481</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005879427772015333</v>
+        <v>0.009965959936380386</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009111758321523666</v>
+        <v>0.005275469273328781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004789380822330713</v>
+        <v>0.005291994195431471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0182858444750309</v>
+        <v>0.01041486021131277</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008415699936449528</v>
+        <v>0.004782856442034245</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06359242647886276</v>
+        <v>0.0006721231620758772</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01776345074176788</v>
+        <v>0.00314897857606411</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02012604847550392</v>
+        <v>0.004919955972582102</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01477352157235146</v>
+        <v>0.00353109952993691</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009553195908665657</v>
+        <v>0.003002374432981014</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003261623787693679</v>
+        <v>0.001242933445610106</v>
       </c>
       <c r="U5" t="n">
-        <v>0.003483222564682364</v>
+        <v>0.000173851105500944</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01535867340862751</v>
+        <v>0.0006114249699749053</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02323214337229729</v>
+        <v>0.005444944836199284</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00412925286218524</v>
+        <v>0.001261124154552817</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0007420985493808985</v>
+        <v>9.024504106491804e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001842928468249738</v>
+        <v>0.007420092355459929</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003943922463804483</v>
+        <v>0.0002103208680637181</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.007157863583415747</v>
+        <v>0.0003547545638866723</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01129786856472492</v>
+        <v>0.004127656109631062</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0007296197582036257</v>
+        <v>5.096948007121682e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005444733891636133</v>
+        <v>0.0009521548636257648</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.004071672447025776</v>
+        <v>0.001331293606199324</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.006164860911667347</v>
+        <v>0.001670670229941607</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.003517128527164459</v>
+        <v>0.0006640345091000199</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.00312765222042799</v>
+        <v>0.0007692116778343916</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001212517963722348</v>
+        <v>0.001289145671762526</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0002592288656160235</v>
+        <v>6.237684283405542e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002087880857288837</v>
+        <v>0.001897015608847141</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.009140023030340672</v>
+        <v>0.000662017147988081</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0003060498274862766</v>
+        <v>0.0007152603357098997</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01545035094022751</v>
+        <v>0.0001682424044702202</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.009623794816434383</v>
+        <v>0.0009852554649114609</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.003377539105713367</v>
+        <v>0.001892388565465808</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.004395375028252602</v>
+        <v>0.001329935737885535</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.004486863501369953</v>
+        <v>0.0003078390436712652</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.005379506386816502</v>
+        <v>0.000881345069501549</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.009457217529416084</v>
+        <v>0.001047380967065692</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002311546355485916</v>
+        <v>0.00335492379963398</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.002969608176499605</v>
+        <v>0.006952943280339241</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01268930733203888</v>
+        <v>0.001111259334720671</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.03868518769741058</v>
+        <v>0.002985357539728284</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001167268608696759</v>
+        <v>0.0003643601667135954</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.01234489120543003</v>
+        <v>0.004287137649953365</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.004263466224074364</v>
+        <v>0.00248825061134994</v>
       </c>
       <c r="BC5" t="n">
-        <v>6.984919309616089e-07</v>
+        <v>0.009350121952593327</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.007481913082301617</v>
+        <v>0.002647881861776114</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.002617629943415523</v>
+        <v>1.207653622259386e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.007939917035400867</v>
+        <v>0.002005151938647032</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.002718924079090357</v>
+        <v>0.006813309155404568</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.009021811187267303</v>
+        <v>0.00161592336371541</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.004429199267178774</v>
+        <v>0.006824922282248735</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01466726791113615</v>
+        <v>0.01068065967410803</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0004520053043961525</v>
+        <v>0.000198554655071348</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.00424116337671876</v>
+        <v>0.001547725172713399</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002615151926875114</v>
+        <v>0.003058376256376505</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002338765421882272</v>
+        <v>0.002654772019013762</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.006454193964600563</v>
+        <v>0.002653369214385748</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01016670744866133</v>
+        <v>0.004447576124221087</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.01692831702530384</v>
+        <v>0.001735323923639953</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.003050353145226836</v>
+        <v>0.002156496979296207</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004226184450089931</v>
+        <v>0.000924675608985126</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0009701326489448547</v>
+        <v>0.001686289673671126</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002985743340104818</v>
+        <v>0.001079487847164273</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0008390443399548531</v>
+        <v>0.001843697624281049</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.002604091539978981</v>
+        <v>0.002035047858953476</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.007811584044247866</v>
+        <v>0.003532007103785872</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01020816527307034</v>
+        <v>0.001619397080503404</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.02490018680691719</v>
+        <v>3.10542163788341e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0004787850193679333</v>
+        <v>0.002089143265038729</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.001057226443663239</v>
+        <v>0.007125192321836948</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01183986477553844</v>
+        <v>0.00330922263674438</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0003514690906740725</v>
+        <v>0.001538124633952975</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.002592582022771239</v>
+        <v>0.001660119858570397</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0009244859684258699</v>
+        <v>0.001697273692116141</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00799114815890789</v>
+        <v>0.002099470468237996</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003671889891847968</v>
+        <v>0.001294759567826986</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01427636109292507</v>
+        <v>0.001128364820033312</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0007648352184332907</v>
+        <v>0.00119343469850719</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.005119636654853821</v>
+        <v>0.001599315321072936</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001627686433494091</v>
+        <v>0.001526336651295424</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.007135095074772835</v>
+        <v>0.004000884480774403</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.005274072289466858</v>
+        <v>0.000829891418106854</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.005018162075430155</v>
+        <v>3.393335646251217e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.009177997708320618</v>
+        <v>0.00104085577186197</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.020099226385355</v>
+        <v>0.001973084174096584</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0133295925334096</v>
+        <v>0.0007972466410137713</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.008642847649753094</v>
+        <v>0.0009725608397275209</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01343105640262365</v>
+        <v>0.001108300173655152</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.005564735736697912</v>
+        <v>0.001801659120246768</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002350102178752422</v>
+        <v>0.001534803071990609</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.002128742402419448</v>
+        <v>0.001070146914571524</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0001805136271286756</v>
+        <v>0.000615266733802855</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.009082213044166565</v>
+        <v>0.001359834335744381</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.002668739063665271</v>
+        <v>0.0008969397749751806</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.01571857742965221</v>
+        <v>0.0006086549255996943</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.001934975734911859</v>
+        <v>0.0005475307116284966</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.006435835268348455</v>
+        <v>0.001429036259651184</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.000833831902127713</v>
+        <v>0.001972244819626212</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.005237732082605362</v>
+        <v>0.0004245999734848738</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.005193179007619619</v>
+        <v>0.007998984307050705</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.004545232281088829</v>
+        <v>0.002318660262972116</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002232377417385578</v>
+        <v>0.0006335297366604209</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.00457119382917881</v>
+        <v>0.0007923556258901954</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01504182256758213</v>
+        <v>0.007362386677414179</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01178680825978518</v>
+        <v>0.007944012060761452</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.006165880709886551</v>
+        <v>0.0006470829248428345</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0009674280881881714</v>
+        <v>0.002756432164460421</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.00503131840378046</v>
+        <v>0.001510910573415458</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.004013179335743189</v>
+        <v>0.001358756911940873</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0003444588801357895</v>
+        <v>0.002328976755961776</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.004952035378664732</v>
+        <v>0.0007875260780565441</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.002157291397452354</v>
+        <v>0.003443286754190922</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.007147949654608965</v>
+        <v>0.0003588871331885457</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0005959936534054577</v>
+        <v>0.00170404464006424</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.004900068044662476</v>
+        <v>0.001469631213694811</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.000854801619425416</v>
+        <v>0.001300229574553668</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001565808895975351</v>
+        <v>0.0003351030463818461</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.00070129957748577</v>
+        <v>0.0007635551737621427</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.004802617710083723</v>
+        <v>0.001410662545822561</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0004100992809981108</v>
+        <v>0.0009561257902532816</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.009123691357672215</v>
+        <v>0.0009499298175796866</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.008098592050373554</v>
+        <v>0.004882125649601221</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0009068071376532316</v>
+        <v>0.0005627151113003492</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001842732541263103</v>
+        <v>0.002960431389510632</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.003379679983481765</v>
+        <v>0.002376349875703454</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.002475106390193105</v>
+        <v>0.001537866657599807</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.005061226896941662</v>
+        <v>1.1468306183815e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.002220039488747716</v>
+        <v>0.001982709625735879</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.009010397829115391</v>
+        <v>0.002732692752033472</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01065682340413332</v>
+        <v>0.0009349856991320848</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0155726931989193</v>
+        <v>0.0007097253110259771</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.003005310893058777</v>
+        <v>0.001135532394982874</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.002727324143052101</v>
+        <v>0.001735506462864578</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.003895990317687392</v>
+        <v>0.002485756063833833</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.005258757155388594</v>
+        <v>0.001571684377267957</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.004178227391093969</v>
+        <v>0.0001608802704140544</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.003945889882743359</v>
+        <v>0.002039601560682058</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.003990981727838516</v>
+        <v>0.001335195498540998</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001510573667474091</v>
+        <v>0.0006347779417410493</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.001095259562134743</v>
+        <v>0.0009163632057607174</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.006412330083549023</v>
+        <v>0.001054793247021735</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.006242299452424049</v>
+        <v>0.005522220861166716</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0008527403697371483</v>
+        <v>0.001750537659972906</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0001449583214707673</v>
+        <v>0.00128246087115258</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001295775990001857</v>
+        <v>0.001365498756058514</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.001463907188735902</v>
+        <v>0.001293891109526157</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.006346829235553741</v>
+        <v>0.001594095374457538</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.003269621636718512</v>
+        <v>0.0004668007022701204</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.01389813981950283</v>
+        <v>0.001051312778145075</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002425913000479341</v>
+        <v>0.0007683004951104522</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.005484835244715214</v>
+        <v>0.001071042264811695</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0002984087914228439</v>
+        <v>0.002209420781582594</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.00142742192838341</v>
+        <v>0.0002201231545768678</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.002742207841947675</v>
+        <v>0.001242644502781332</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.004419926553964615</v>
+        <v>0.0005128083867020905</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01796434819698334</v>
+        <v>0.00330860004760325</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.006631932221353054</v>
+        <v>0.001073022023774683</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.005409481469541788</v>
+        <v>0.002070387126877904</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.00172612362075597</v>
+        <v>7.789151277393103e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.009116352535784245</v>
+        <v>0.0005577460979111493</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.001833464950323105</v>
+        <v>0.00292996340431273</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.002094099996611476</v>
+        <v>0.003609437728300691</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.004007596056908369</v>
+        <v>0.00357956369407475</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.002878125291317701</v>
+        <v>0.006846895441412926</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0136868879199028</v>
+        <v>0.002889668801799417</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01389652211219072</v>
+        <v>0.001080782734788954</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.03027301654219627</v>
+        <v>0.00400603050366044</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.01178856752812862</v>
+        <v>0.0006079266313463449</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01602618768811226</v>
+        <v>0.0004042325308546424</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.005919258575886488</v>
+        <v>0.002785933902487159</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.003292011097073555</v>
+        <v>0.001254018978215754</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0003470578812994063</v>
+        <v>0.001472094561904669</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.006185593549162149</v>
+        <v>0.002248014090582728</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.000269077776465565</v>
+        <v>0.002798480447381735</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.000925170723348856</v>
+        <v>0.004306574817746878</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.002285712631419301</v>
+        <v>0.003878588322550058</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001995749771595001</v>
+        <v>0.0005665551871061325</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002233363687992096</v>
+        <v>0.002220821101218462</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.007467616815119982</v>
+        <v>0.001144552370533347</v>
       </c>
     </row>
     <row r="6">
@@ -3849,5123 +3849,5123 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005310296081006527</v>
+        <v>0.000425709062255919</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00352629623375833</v>
+        <v>0.02311930246651173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002020457061007619</v>
+        <v>0.00305701675824821</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003046708297915757</v>
+        <v>0.01046326849609613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008351187221705914</v>
+        <v>0.00837523490190506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03176732361316681</v>
+        <v>0.01048056222498417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007032865658402443</v>
+        <v>0.0003562213387340307</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008666584268212318</v>
+        <v>0.001115900347940624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002011133125051856</v>
+        <v>0.004456011578440666</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004917141515761614</v>
+        <v>0.002207104116678238</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00379697629250586</v>
+        <v>0.01777881570160389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001864044810645282</v>
+        <v>0.0002430154563626274</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001247367705218494</v>
+        <v>0.01040700823068619</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00612248107790947</v>
+        <v>0.005684674717485905</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03244023397564888</v>
+        <v>0.01193190272897482</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004935764241963625</v>
+        <v>0.0007371457759290934</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003592914203181863</v>
+        <v>0.003212896874174476</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001544857863336802</v>
+        <v>0.004021858796477318</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008103854022920132</v>
+        <v>0.0004883871297352016</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002333131851628423</v>
+        <v>0.003428558818995953</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0004672713112086058</v>
+        <v>0.0005171963712200522</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003211674513295293</v>
+        <v>0.004051428288221359</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001350817969068885</v>
+        <v>0.001173527212813497</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007166380528360605</v>
+        <v>0.005523903295397758</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001527094282209873</v>
+        <v>0.0005223396001383662</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.003084498923271894</v>
+        <v>0.001014829729683697</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.000612811534665525</v>
+        <v>1.13376445369795e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.002646645065397024</v>
+        <v>0.001723163877613842</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.003342707175761461</v>
+        <v>0.003683403367176652</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001261569675989449</v>
+        <v>0.0005161953158676624</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002038254460785538</v>
+        <v>0.0007310775108635426</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01097394991666079</v>
+        <v>0.0007816556608304381</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.005670354701578617</v>
+        <v>0.00284280558116734</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0004040288913529366</v>
+        <v>0.0007042952347546816</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.006371373776346445</v>
+        <v>0.001321463380008936</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.004660747479647398</v>
+        <v>0.002562319627031684</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.002857143525034189</v>
+        <v>0.003978862427175045</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.000219663284951821</v>
+        <v>0.002836941741406918</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.007515119388699532</v>
+        <v>0.0006295851781032979</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001783636980690062</v>
+        <v>0.001015501096844673</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.002515452215448022</v>
+        <v>0.0002096057869493961</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.001318599563091993</v>
+        <v>0.001061021932400763</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0005518050165846944</v>
+        <v>0.001290206098929048</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0005767950788140297</v>
+        <v>0.001764710643328726</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.002055408200249076</v>
+        <v>0.002539047505706549</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.004175490699708462</v>
+        <v>0.001541912788525224</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.003073644358664751</v>
+        <v>0.01734168455004692</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004183270968496799</v>
+        <v>0.001116586616262794</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.008339238353073597</v>
+        <v>0.003630213905125856</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0008022630354389548</v>
+        <v>0.004686928819864988</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.01469915732741356</v>
+        <v>0.002825946314260364</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0003589830594137311</v>
+        <v>0.004741834010928869</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.002498514484614134</v>
+        <v>0.003154823556542397</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.002247374504804611</v>
+        <v>0.001651462051086128</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0007880469784140587</v>
+        <v>0.001184758730232716</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0009220833308063447</v>
+        <v>0.007206946145743132</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.003865305334329605</v>
+        <v>0.00545937567949295</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.003541592275723815</v>
+        <v>0.00143263244535774</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.003726665396243334</v>
+        <v>0.007167747709900141</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.00616740994155407</v>
+        <v>0.006094722542911768</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001863871002569795</v>
+        <v>0.002628404414281249</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0004231315106153488</v>
+        <v>0.005489260423928499</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0005447204457595944</v>
+        <v>0.004418710246682167</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0002004102716455236</v>
+        <v>0.003163854125887156</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0003191817086189985</v>
+        <v>0.00528981676325202</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.001873210421763361</v>
+        <v>0.002162656746804714</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001694792881608009</v>
+        <v>0.001400699373334646</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.005768366158008575</v>
+        <v>0.002275219652801752</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.003124239854514599</v>
+        <v>0.00208718073554337</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0004072413430549204</v>
+        <v>0.00167966983281076</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.002818903420120478</v>
+        <v>0.0007264367304742336</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.001781802158802748</v>
+        <v>0.0006601124769076705</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.005059360526502132</v>
+        <v>0.001493933494202793</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0007272628718055785</v>
+        <v>0.009083348326385021</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.001137031009420753</v>
+        <v>0.003628667211160064</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.00188086461275816</v>
+        <v>0.003432344645261765</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002074985299259424</v>
+        <v>0.0001684977032709867</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.01183873973786831</v>
+        <v>0.001010144245810807</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0001562570978421718</v>
+        <v>0.0007100851507857442</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.003624227130785584</v>
+        <v>0.0001191717601614073</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.003785775508731604</v>
+        <v>0.001003329642117023</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0005543183069676161</v>
+        <v>0.0006509395898319781</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0009021887672133744</v>
+        <v>0.003191593801602721</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0001309760118601844</v>
+        <v>0.001378824352286756</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.001812692731618881</v>
+        <v>0.000544206122867763</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.001879829214885831</v>
+        <v>0.0005602139281108975</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.005236940924078226</v>
+        <v>0.001751881674863398</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0003972870763391256</v>
+        <v>0.001304734614677727</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0008703250205144286</v>
+        <v>0.0005718161119148135</v>
       </c>
       <c r="CL7" t="n">
-        <v>3.966456279158592e-05</v>
+        <v>0.0005046662408858538</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.00388684356585145</v>
+        <v>0.004392034839838743</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0009083494078367949</v>
+        <v>0.004028898663818836</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.005215199198573828</v>
+        <v>0.0007734731771051884</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.001649106270633638</v>
+        <v>0.004452591296285391</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001218633260577917</v>
+        <v>0.001666702446527779</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.004289869219064713</v>
+        <v>0.00142549688462168</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.004954081028699875</v>
+        <v>0.003374968422576785</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.00290704658254981</v>
+        <v>0.003848168067634106</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.002462611300870776</v>
+        <v>0.0003337199450470507</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001479501719586551</v>
+        <v>0.0001459949708078057</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.001010329462587833</v>
+        <v>0.002339007100090384</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0002494759974069893</v>
+        <v>0.002056501572951674</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.001870189560577273</v>
+        <v>0.001492807175964117</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.002708700252696872</v>
+        <v>2.586889240774326e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.006382286548614502</v>
+        <v>0.002188371960073709</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.403155329171568e-05</v>
+        <v>0.0008156119147315621</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.002646611537784338</v>
+        <v>0.000984019716270268</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.443020300939679e-05</v>
+        <v>2.97923616017215e-05</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.007574428804218769</v>
+        <v>0.001767956651747227</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.002680572215467691</v>
+        <v>0.002996093360707164</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.007112068124115467</v>
+        <v>0.002154656918719411</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00347093865275383</v>
+        <v>0.004482229240238667</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001095685176551342</v>
+        <v>0.004359109792858362</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.003045049263164401</v>
+        <v>0.00295685138553381</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.005055559333413839</v>
+        <v>0.004467773251235485</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.001595775713212788</v>
+        <v>0.0003457576676737517</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.006484108045697212</v>
+        <v>0.00699915736913681</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.003453271929174662</v>
+        <v>0.0005455966456793249</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001859343610703945</v>
+        <v>0.001092226710170507</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.001849940163083375</v>
+        <v>0.001497698831371963</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.00144720752723515</v>
+        <v>0.001918764435686171</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0005334906163625419</v>
+        <v>0.001656416454352438</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.001996480626985431</v>
+        <v>0.001757393358275294</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.000654135481454432</v>
+        <v>0.002678935881704092</v>
       </c>
       <c r="DU7" t="n">
-        <v>8.415617048740387e-05</v>
+        <v>0.00114149134606123</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001206366578117013</v>
+        <v>0.001209990470670164</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.002673080889508128</v>
+        <v>0.0006049320800229907</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0009864878375083208</v>
+        <v>0.0003516724682413042</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.000142584482091479</v>
+        <v>0.003114363877102733</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.001993434969335794</v>
+        <v>0.003127333242446184</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0006182886427268386</v>
+        <v>0.002140055410563946</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.00192487973254174</v>
+        <v>0.001146414084360003</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.002242472022771835</v>
+        <v>0.0001292098022531718</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.003694345708936453</v>
+        <v>0.001402454450726509</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0009497382561676204</v>
+        <v>0.0002762923832051456</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.001428166986443102</v>
+        <v>0.0002278203901369125</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.003900244599208236</v>
+        <v>0.001814103219658136</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0006781861884519458</v>
+        <v>0.0002009073214139789</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.001874792156741023</v>
+        <v>0.0005722690839320421</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.005816458724439144</v>
+        <v>0.0001838918251451105</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.007231578696519136</v>
+        <v>0.001914996188133955</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.026439713314176e-05</v>
+        <v>0.001891964231617749</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.001706732204183936</v>
+        <v>0.0005564431776292622</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0008362835505977273</v>
+        <v>0.0007919141789898276</v>
       </c>
       <c r="EO7" t="n">
-        <v>9.395636152476072e-05</v>
+        <v>0.0006845209281891584</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001923199743032455</v>
+        <v>0.0002046270383289084</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.001445118803530931</v>
+        <v>0.002223895397037268</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.001205552369356155</v>
+        <v>0.0003070148814003915</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.001620434341020882</v>
+        <v>0.001023854594677687</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.004801314789801836</v>
+        <v>0.003258830634877086</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001166792004369199</v>
+        <v>0.001406569965183735</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.002501159673556685</v>
+        <v>0.006128577049821615</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.003228785004466772</v>
+        <v>0.002115190029144287</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0001203654683195055</v>
+        <v>0.0001072471204679459</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0008487306768074632</v>
+        <v>0.002143800025805831</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0005549566121771932</v>
+        <v>0.001049507409334183</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001746437745168805</v>
+        <v>0.0009051972301676869</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002648736815899611</v>
+        <v>0.000530210614670068</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.00533943297341466</v>
+        <v>0.002215641085058451</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0002364030515309423</v>
+        <v>0.001354312524199486</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001938266679644585</v>
+        <v>0.0004691434442065656</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0004169325402472168</v>
+        <v>0.000680109893437475</v>
       </c>
       <c r="FG7" t="n">
-        <v>7.714726962149143e-06</v>
+        <v>0.0006354490760713816</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.001015293295495212</v>
+        <v>0.002278918866068125</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001247454667463899</v>
+        <v>0.001783450949005783</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0004786104836966842</v>
+        <v>0.004861802794039249</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.004305822774767876</v>
+        <v>0.00117299915291369</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.002553897211328149</v>
+        <v>0.001493341522291303</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.00113904825411737</v>
+        <v>0.001834430615417659</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.004006019793450832</v>
+        <v>0.002374907024204731</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.003459471510723233</v>
+        <v>0.0003227281267754734</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.00904375035315752</v>
+        <v>0.0009975747670978308</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.00174723204690963</v>
+        <v>0.007825762964785099</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.002171938307583332</v>
+        <v>0.001277722301892936</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0001560221135150641</v>
+        <v>0.003412626683712006</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.001203776802867651</v>
+        <v>0.003420207882300019</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.01204365771263838</v>
+        <v>0.003389046993106604</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.002762940246611834</v>
+        <v>0.00686296634376049</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.002177151385694742</v>
+        <v>0.001987222582101822</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0009388300823047757</v>
+        <v>0.002393980976194143</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00233791652135551</v>
+        <v>0.001808266621083021</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0001628350000828505</v>
+        <v>0.0009315703646279871</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.001965968403965235</v>
+        <v>0.001823892933316529</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0001168319140560925</v>
+        <v>0.001039663911797106</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.003120417008176446</v>
+        <v>7.983815157786012e-05</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.001577549381181598</v>
+        <v>0.002530116820707917</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.000137345923576504</v>
+        <v>0.006586046423763037</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.004320665262639523</v>
+        <v>0.002157661598175764</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.001092777238227427</v>
+        <v>0.0007267373148351908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002548404969274998</v>
+        <v>0.003791996976360679</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03857044503092766</v>
+        <v>0.04646717011928558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01213650032877922</v>
+        <v>0.004181102383881807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00828416645526886</v>
+        <v>0.02518319524824619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02969209104776382</v>
+        <v>0.006448712199926376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08245906978845596</v>
+        <v>0.003642516676336527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003662682371214032</v>
+        <v>0.006748965010046959</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02394441515207291</v>
+        <v>0.003403274808079004</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0137686412781477</v>
+        <v>0.002902072854340076</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000251386605668813</v>
+        <v>0.008827568963170052</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04513896629214287</v>
+        <v>0.03620641678571701</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01190308202058077</v>
+        <v>0.00258123641833663</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003331415355205536</v>
+        <v>0.02359130792319775</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02637050300836563</v>
+        <v>0.009905999526381493</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08924295753240585</v>
+        <v>0.007034782320261002</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003569352673366666</v>
+        <v>0.004555481486022472</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002819921588525176</v>
+        <v>0.005447504110634327</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01062633842229843</v>
+        <v>0.002612250158563256</v>
       </c>
       <c r="S8" t="n">
-        <v>0.009078549221158028</v>
+        <v>0.002287798561155796</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01200720109045506</v>
+        <v>0.007637428119778633</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002965181134641171</v>
+        <v>0.002175209810957313</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006721417885273695</v>
+        <v>0.003387325676158071</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001137270592153072</v>
+        <v>0.001210427843034267</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02730347961187363</v>
+        <v>0.003924030810594559</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.009042300283908844</v>
+        <v>0.005846397951245308</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01485261507332325</v>
+        <v>0.005177710205316544</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001806958694942296</v>
+        <v>0.004998826887458563</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007320330012589693</v>
+        <v>0.00187254510819912</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.004165044054389</v>
+        <v>0.005084134638309479</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.008487786166369915</v>
+        <v>0.00026730663375929</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.004576296079903841</v>
+        <v>0.0008449089946225286</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03009722381830215</v>
+        <v>0.002483953256160021</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01539658755064011</v>
+        <v>0.002007699105888605</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0001109299482777715</v>
+        <v>0.003076558467000723</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01321387942880392</v>
+        <v>0.0003664238902274519</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.00298283202573657</v>
+        <v>0.002288771560415626</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.003220522310584784</v>
+        <v>0.004201128613203764</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.007771255914121866</v>
+        <v>0.007159300614148378</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.001701936591416597</v>
+        <v>0.0008634721161797643</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001906378194689751</v>
+        <v>0.00138862943276763</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.003318895120173693</v>
+        <v>0.0002752819273155183</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.008192848414182663</v>
+        <v>0.001997957471758127</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002973274560645223</v>
+        <v>0.002397877397015691</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001272665802389383</v>
+        <v>0.003045244375243783</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.008316688239574432</v>
+        <v>0.002906613517552614</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0007049902924336493</v>
+        <v>0.00255483528599143</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.02937295846641064</v>
+        <v>0.03026426769793034</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.005201547406613827</v>
+        <v>0.0001732306845951825</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.004847260657697916</v>
+        <v>0.006096597760915756</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0004971603630110621</v>
+        <v>0.0005050646141171455</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.03493787348270416</v>
+        <v>0.001540601253509521</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.001204072032123804</v>
+        <v>0.001596865011379123</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002914161421358585</v>
+        <v>0.001510486123152077</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001033448381349444</v>
+        <v>0.004706126172095537</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005568926222622395</v>
+        <v>0.001967987045645714</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.001105960691347718</v>
+        <v>0.00792983639985323</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.009732421487569809</v>
+        <v>0.007099180482327938</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.008983560837805271</v>
+        <v>0.00420638220384717</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.005276642274111509</v>
+        <v>0.01099409721791744</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.01635367423295975</v>
+        <v>0.001320081995800138</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.004419414792209864</v>
+        <v>0.005842817947268486</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.01518191210925579</v>
+        <v>0.004788982681930065</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.001136208884418011</v>
+        <v>0.001491509145125747</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002104391111060977</v>
+        <v>0.003580412594601512</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.009819868020713329</v>
+        <v>0.001916532870382071</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.007329985965043306</v>
+        <v>0.002858617343008518</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001269347267225385</v>
+        <v>0.001210987800732255</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01428498420864344</v>
+        <v>0.001242430880665779</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.008448904380202293</v>
+        <v>0.002598227001726627</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0004703511949628592</v>
+        <v>0.0008895035134628415</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.009123914875090122</v>
+        <v>0.001123657217249274</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.002075413009151816</v>
+        <v>0.001565325073897839</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001133560668677092</v>
+        <v>0.003310000523924828</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01579391211271286</v>
+        <v>0.01735245250165462</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.007600472308695316</v>
+        <v>0.00541118485853076</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0009951968677341938</v>
+        <v>0.006863052025437355</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01164238806813955</v>
+        <v>0.0004947456764057279</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.02501413971185684</v>
+        <v>0.00136420875787735</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.001347614335827529</v>
+        <v>0.003253250382840633</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001112187281250954</v>
+        <v>0.002350944560021162</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01475500501692295</v>
+        <v>0.00469650886952877</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0009331737528555095</v>
+        <v>0.0009891518857330084</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.008428092114627361</v>
+        <v>0.007319150492548943</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.001581495744176209</v>
+        <v>0.003368989797309041</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.001196700846776366</v>
+        <v>0.002488671336323023</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.006028279662132263</v>
+        <v>0.001778932171873748</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.01427266094833612</v>
+        <v>0.001832561567425728</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.002065242733806372</v>
+        <v>0.001373913371935487</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.002026596805080771</v>
+        <v>0.0009256982011720538</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.005002453457564116</v>
+        <v>0.0025043950881809</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002324459375813603</v>
+        <v>0.008300500921905041</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001531284186057746</v>
+        <v>0.002186751691624522</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01286421157419682</v>
+        <v>0.0001025052624754608</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.001703542075119913</v>
+        <v>0.006113723386079073</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.004176200367510319</v>
+        <v>0.006798090413212776</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01445691660046577</v>
+        <v>0.001373112783767283</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.001977126346901059</v>
+        <v>0.005434349179267883</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.001554670161567628</v>
+        <v>0.006166799925267696</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0008097663521766663</v>
+        <v>0.001742057618685067</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.002747316844761372</v>
+        <v>0.0005222559557296336</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.007450922857969999</v>
+        <v>0.007109335623681545</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.001994048245251179</v>
+        <v>0.003676942083984613</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001871428568847477</v>
+        <v>0.004054665099829435</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.006598290055990219</v>
+        <v>0.002333650831133127</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.01364009454846382</v>
+        <v>0.002244167262688279</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.003307033330202103</v>
+        <v>0.001208430388942361</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.006290274206548929</v>
+        <v>0.001806355197913945</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.00461875181645155</v>
+        <v>0.001397703890688717</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.01101676002144814</v>
+        <v>0.003184189554303885</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.003683592192828655</v>
+        <v>0.005793861579149961</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.008127445355057716</v>
+        <v>0.001007770304568112</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0003694446641020477</v>
+        <v>0.01301697548478842</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.01277505699545145</v>
+        <v>0.001225458923727274</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0003512536641210318</v>
+        <v>0.0009960063034668565</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.006651365663856268</v>
+        <v>0.005663737654685974</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.01005095895379782</v>
+        <v>0.0006670687580481172</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.009596960619091988</v>
+        <v>0.0002609244547784328</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.005638777744024992</v>
+        <v>0.0008180392906069756</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.003273598616942763</v>
+        <v>0.001214681891724467</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.002535201143473387</v>
+        <v>0.002420654520392418</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.004502946976572275</v>
+        <v>0.001017166883684695</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.001164913061074913</v>
+        <v>0.004705343395471573</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00143295805901289</v>
+        <v>0.003320628078654408</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.004829816520214081</v>
+        <v>0.0008343042572960258</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.005505425855517387</v>
+        <v>0.002402551472187042</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.00218837964348495</v>
+        <v>0.004195263143628836</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001256534829735756</v>
+        <v>0.0009755789069458842</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.504318788647652e-05</v>
+        <v>0.003092187456786633</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.004177306778728962</v>
+        <v>0.003343757707625628</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.003396862186491489</v>
+        <v>0.00214666104875505</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.002177924150601029</v>
+        <v>0.004071713425219059</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0005325201200321317</v>
+        <v>0.00104603567160666</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.000962266989517957</v>
+        <v>0.002032859716564417</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.004664089996367693</v>
+        <v>0.001342271454632282</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.00395168736577034</v>
+        <v>0.001319208648055792</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.00343200983479619</v>
+        <v>0.0009948217775672674</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.01066139433532953</v>
+        <v>0.004625011701136827</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.002083510858938098</v>
+        <v>0.003035616828128695</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.00254320609383285</v>
+        <v>0.002404473023489118</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.02003632858395576</v>
+        <v>0.0008264167699962854</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01725157350301743</v>
+        <v>0.003028310835361481</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0008131142240017653</v>
+        <v>0.001404737820848823</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.01178569160401821</v>
+        <v>2.320087878615595e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.009902965277433395</v>
+        <v>0.001072424463927746</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.00320907449349761</v>
+        <v>0.0003395924577489495</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.004309996496886015</v>
+        <v>0.00469318637624383</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.004649590700864792</v>
+        <v>0.004754144232720137</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.002667422872036695</v>
+        <v>0.00289761321619153</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.008347898721694946</v>
+        <v>0.003187747672200203</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.009571428410708904</v>
+        <v>0.006098669487982988</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.003614102257415652</v>
+        <v>0.004142250865697861</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0003198719350621104</v>
+        <v>0.004703397862613201</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.01048260275274515</v>
+        <v>8.809745486360043e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.001278768177144229</v>
+        <v>0.0004822312039323151</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.008797013200819492</v>
+        <v>0.007413256913423538</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.00349172786809504</v>
+        <v>0.002651349175721407</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002754158806055784</v>
+        <v>0.00368369510397315</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.006510416511446238</v>
+        <v>0.00229350384324789</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.01399327907711267</v>
+        <v>0.00197283155284822</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.002728343475610018</v>
+        <v>0.002354484749957919</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.004826483316719532</v>
+        <v>0.0009294868796132505</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.005498997867107391</v>
+        <v>0.002529295161366463</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.002175408182665706</v>
+        <v>0.0002241346810478717</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.01102344784885645</v>
+        <v>0.00465213181450963</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.01443077344447374</v>
+        <v>0.003399579087272286</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0007233037613332272</v>
+        <v>0.005074037704616785</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01649327948689461</v>
+        <v>0.002001307904720306</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.005690163932740688</v>
+        <v>0.0008585131727159023</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.000523781927768141</v>
+        <v>0.0003223788226023316</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0008807452395558357</v>
+        <v>0.00103391706943512</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.01429832354187965</v>
+        <v>0.001812862697988749</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.002641011727973819</v>
+        <v>0.001440995140001178</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01330986432731152</v>
+        <v>0.00771474651992321</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.002040458843111992</v>
+        <v>0.006095036864280701</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01130404137074947</v>
+        <v>0.003362743649631739</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0002672933042049408</v>
+        <v>0.0007592284819111228</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.01993203163146973</v>
+        <v>0.0001142672263085842</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.003638726193457842</v>
+        <v>0.000133879017084837</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.003757729427888989</v>
+        <v>0.0005383131210692227</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.006577619817107916</v>
+        <v>0.001866899779997766</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.004955850075930357</v>
+        <v>0.006318783853203058</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0007570661837235093</v>
+        <v>0.0008471339242532849</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001586395082995296</v>
+        <v>3.976246807724237e-05</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0001268002670258284</v>
+        <v>0.0006609535194002092</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.005106560885906219</v>
+        <v>0.004726380575448275</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.004679072648286819</v>
+        <v>0.003575901035219431</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0002393185859546065</v>
+        <v>0.01501478441059589</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.01178457774221897</v>
+        <v>0.001815721392631531</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002232463797554374</v>
+        <v>0.002703538164496422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.007840417325496674</v>
+        <v>0.001450602663680911</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01449322979897261</v>
+        <v>0.02049245312809944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02438738755881786</v>
+        <v>0.0012632628204301</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01394750084728003</v>
+        <v>0.01044578850269318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004569362383335829</v>
+        <v>0.003009150503203273</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08076010644435883</v>
+        <v>0.01497126370668411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01432931981980801</v>
+        <v>0.0001453346922062337</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04032967984676361</v>
+        <v>0.00638284208253026</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01900834590196609</v>
+        <v>0.001456006313674152</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007138466462492943</v>
+        <v>0.004798084497451782</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0213612038642168</v>
+        <v>0.01668864861130714</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02365982905030251</v>
+        <v>0.0007188288727775216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007622198201715946</v>
+        <v>0.008881472051143646</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003032009117305279</v>
+        <v>0.001467546913772821</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08411557227373123</v>
+        <v>0.01557710207998753</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01147968601435423</v>
+        <v>0.0008676793659105897</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02900553680956364</v>
+        <v>0.001505514606833458</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0197221077978611</v>
+        <v>0.001279478776268661</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01330773532390594</v>
+        <v>0.001989392098039389</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007174905855208635</v>
+        <v>0.002547079930081964</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002623319160193205</v>
+        <v>0.001332464977167547</v>
       </c>
       <c r="V9" t="n">
-        <v>0.007917848415672779</v>
+        <v>0.001890426850877702</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00030262500513345</v>
+        <v>0.001131683122366667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02993400394916534</v>
+        <v>0.0008502413402311504</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0007410361431539059</v>
+        <v>0.002012226264923811</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01188653241842985</v>
+        <v>0.001494040014222264</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.005034027621150017</v>
+        <v>0.002257388783618808</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.008400995284318924</v>
+        <v>0.0001515832263976336</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01022376399487257</v>
+        <v>0.002208144403994083</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.005227228626608849</v>
+        <v>0.00101875641848892</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01356097869575024</v>
+        <v>0.0001772648538462818</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0387994647026062</v>
+        <v>0.0005630395608022809</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.008431572467088699</v>
+        <v>0.0008064822759479284</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.009456011466681957</v>
+        <v>0.0007303066086024046</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.01929990574717522</v>
+        <v>0.001003223471343517</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.003966080024838448</v>
+        <v>0.0008438890217803419</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.001075062202289701</v>
+        <v>0.002424097619950771</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.00668253330513835</v>
+        <v>0.00292839971370995</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.005552129354327917</v>
+        <v>0.0009750970639288425</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.00672422768548131</v>
+        <v>0.0002129019849235192</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01101899519562721</v>
+        <v>0.0005468606250360608</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.007605878170579672</v>
+        <v>0.002903247717767954</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0007653584470972419</v>
+        <v>3.40232509188354e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.002645107917487621</v>
+        <v>0.002044572727754712</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.006913481280207634</v>
+        <v>0.00232212501578033</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.002964854938909411</v>
+        <v>0.0008615330443717539</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.00609454745426774</v>
+        <v>0.01381006371229887</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.01768550835549831</v>
+        <v>0.0004560370871331543</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.007735650986433029</v>
+        <v>0.0008653161930851638</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01399440411478281</v>
+        <v>0.001269742613658309</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.04766006395220757</v>
+        <v>0.007889155298471451</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.002568101044744253</v>
+        <v>0.0005186187336221337</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.01415781117975712</v>
+        <v>0.003245158120989799</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.005168506409972906</v>
+        <v>0.003854849375784397</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.003000469878315926</v>
+        <v>0.000597445061430335</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.006110422313213348</v>
+        <v>0.004393805284053087</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.01050249673426151</v>
+        <v>0.005688916891813278</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.01554639916867018</v>
+        <v>0.002769613638520241</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0007056307513266802</v>
+        <v>0.004695405252277851</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.003259602701291442</v>
+        <v>0.004324499983340502</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.008707610890269279</v>
+        <v>0.0008783069788478315</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01805026456713676</v>
+        <v>0.003935420885682106</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0004241503775119781</v>
+        <v>7.124105468392372e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.003819125704467297</v>
+        <v>0.000456114299595356</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.003065552096813917</v>
+        <v>0.003955277614295483</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.002242450369521976</v>
+        <v>0.002269138116389513</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.00743738142773509</v>
+        <v>0.0009112682892009616</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01044229604303837</v>
+        <v>0.001169609138742089</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.01233434677124023</v>
+        <v>0.000787186436355114</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.004758954979479313</v>
+        <v>0.001287896884605289</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.003709411947056651</v>
+        <v>0.0005687839584425092</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.001561904326081276</v>
+        <v>0.001445458270609379</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.008285015821456909</v>
+        <v>0.001553191570565104</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.001440662075765431</v>
+        <v>0.006789284758269787</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.004904747474938631</v>
+        <v>0.002355861943215132</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.001834280090406537</v>
+        <v>0.002138597192242742</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.002561789704486728</v>
+        <v>0.001754148164764047</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.02797916904091835</v>
+        <v>0.002292500343173742</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.008395264856517315</v>
+        <v>0.001122798654250801</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.008366667665541172</v>
+        <v>0.001513435505330563</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.01359061244875193</v>
+        <v>0.002912488533183932</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.0006304046837612987</v>
+        <v>0.0006832184735685587</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.01085150428116322</v>
+        <v>0.003104957519099116</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.004072098527103662</v>
+        <v>0.002312218770384789</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.007991091348230839</v>
+        <v>0.001726632239297032</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.00127042515669018</v>
+        <v>0.001273130066692829</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.01495274528861046</v>
+        <v>0.002445757389068604</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.002021281281486154</v>
+        <v>0.001365569536574185</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.006103930063545704</v>
+        <v>0.0009506666101515293</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.004103422164916992</v>
+        <v>0.001396112143993378</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.006151497829705477</v>
+        <v>0.002912800293415785</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.002123123733326793</v>
+        <v>0.0006949498201720417</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.00895707868039608</v>
+        <v>0.0008618452120572329</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.00971120223402977</v>
+        <v>0.002686402294784784</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.003580605611205101</v>
+        <v>0.0001146823924500495</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.01492790319025517</v>
+        <v>0.001683697104454041</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.008746695704758167</v>
+        <v>0.003487940644845366</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.003531690919771791</v>
+        <v>0.003673445899039507</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.00553172267973423</v>
+        <v>8.981006976682693e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.003410184755921364</v>
+        <v>0.0002120963472407311</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.01094464305788279</v>
+        <v>0.002604137873277068</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.004502968862652779</v>
+        <v>0.002396292285993695</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.006533578038215637</v>
+        <v>0.002664259634912014</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.001847119303420186</v>
+        <v>0.0007241920102387667</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.01558305975049734</v>
+        <v>0.002559249522164464</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0004781440948136151</v>
+        <v>0.001293705427087843</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01060494221746922</v>
+        <v>0.002189293503761292</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.004143098834902048</v>
+        <v>0.0006639283383265138</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.01577422395348549</v>
+        <v>0.002066847402602434</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.00250916020013392</v>
+        <v>0.00199145101942122</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.003070243634283543</v>
+        <v>0.0001013623841572553</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.01078786142170429</v>
+        <v>0.006694952491670847</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.009564303793013096</v>
+        <v>0.0005080857081338763</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.005870508030056953</v>
+        <v>0.001124128000810742</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01847252063453197</v>
+        <v>0.002859728643670678</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.001093575730919838</v>
+        <v>0.001886200858280063</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.008111739531159401</v>
+        <v>0.000744792225304991</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01043475512415171</v>
+        <v>0.0004345950146671385</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.006992798298597336</v>
+        <v>0.0001281562581425533</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0008258044836111367</v>
+        <v>0.001193278236314654</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.009854794479906559</v>
+        <v>0.001653981395065784</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0001462348736822605</v>
+        <v>0.0003221711958758533</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.008393330499529839</v>
+        <v>0.0003859368734993041</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.004644188098609447</v>
+        <v>0.000589359609875828</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.004386700224131346</v>
+        <v>0.001240783138200641</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0001495582982897758</v>
+        <v>0.002204393735155463</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.001589208142831922</v>
+        <v>0.0005336382891982794</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.001516748685389757</v>
+        <v>0.000914379779715091</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.003257742151618004</v>
+        <v>0.003884975565597415</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.003188607282936573</v>
+        <v>0.0002809849684126675</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.005301922559738159</v>
+        <v>0.0009384939912706614</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.004403820261359215</v>
+        <v>0.0006216262117959559</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.002399349352344871</v>
+        <v>0.0003624396631494164</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.002132683992385864</v>
+        <v>0.001231644884683192</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.590399865061045e-05</v>
+        <v>7.926480611786246e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.005489406175911427</v>
+        <v>0.0007988831494003534</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.01241393573582172</v>
+        <v>0.00223432993516326</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0006049664225429296</v>
+        <v>0.001529582077637315</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.005534972064197063</v>
+        <v>0.0001816577860154212</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.00954607967287302</v>
+        <v>0.0001587910810485482</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.0103581203147769</v>
+        <v>0.002417493145912886</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0006355892983265221</v>
+        <v>0.001360071357339621</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.009067011997103691</v>
+        <v>0.0003619189374148846</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.006175442133098841</v>
+        <v>0.000404578517191112</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.005837636068463326</v>
+        <v>0.000118647760245949</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.000695027585607022</v>
+        <v>0.0007984203402884305</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.003112832084298134</v>
+        <v>0.002431124681606889</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.001322323922067881</v>
+        <v>0.0009150095866061747</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.004306096583604813</v>
+        <v>0.001916225184686482</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.01287331059575081</v>
+        <v>0.003516981145367026</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.005746714770793915</v>
+        <v>0.002778189955279231</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.001627384219318628</v>
+        <v>0.004986673593521118</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.005984560586512089</v>
+        <v>0.0006149155087769032</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.002602948108687997</v>
+        <v>0.000172571002622135</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.008939514867961407</v>
+        <v>0.002457133494317532</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.005710771307349205</v>
+        <v>0.001696183462627232</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.006963158491998911</v>
+        <v>0.001906371675431728</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.001898329355753958</v>
+        <v>0.0009947861544787884</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.01584942266345024</v>
+        <v>0.002217134460806847</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.001250515226274729</v>
+        <v>0.002028570510447025</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.009552875533699989</v>
+        <v>0.001349063124507666</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.00341244088485837</v>
+        <v>0.00141203124076128</v>
       </c>
       <c r="FG9" t="n">
-        <v>9.906763443723321e-05</v>
+        <v>6.06075263931416e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.01325305551290512</v>
+        <v>0.001603122800588608</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.007683212403208017</v>
+        <v>0.002567175310105085</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.005583499558269978</v>
+        <v>0.003327922662720084</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.006440397351980209</v>
+        <v>0.0005222306936047971</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.01022478751838207</v>
+        <v>0.001428513089194894</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.0008314684382639825</v>
+        <v>0.0003844275197479874</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01057796366512775</v>
+        <v>0.001310384715907276</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.01066818553954363</v>
+        <v>0.001499764388427138</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.00167630473151803</v>
+        <v>0.001036673784255981</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0128574026748538</v>
+        <v>0.005453619174659252</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.0008950396440923214</v>
+        <v>0.001857338007539511</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.02024283073842525</v>
+        <v>0.002731960732489824</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.001069602556526661</v>
+        <v>0.0004675806558225304</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.03305230289697647</v>
+        <v>0.002490106504410505</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.009885377250611782</v>
+        <v>0.002061759820207953</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.002204000018537045</v>
+        <v>0.001570044551044703</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.01201403699815273</v>
+        <v>0.0001855501031968743</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.00266192969866097</v>
+        <v>0.003073708154261112</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.006420555524528027</v>
+        <v>0.0008465869468636811</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.0002566803013905883</v>
+        <v>0.001533671631477773</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.00926608219742775</v>
+        <v>0.0006096562137827277</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.00291519402526319</v>
+        <v>0.002726989332586527</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.00584588386118412</v>
+        <v>0.001635790569707751</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01022834703326225</v>
+        <v>0.00976221077144146</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01118914317339659</v>
+        <v>0.0001287468476220965</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.001180829014629126</v>
+        <v>0.001474639168009162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0008148502092808485</v>
+        <v>0.001448232913389802</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01472707372158766</v>
+        <v>0.006541443523019552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007724613882601261</v>
+        <v>0.0005993323284201324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003132517682388425</v>
+        <v>0.004268455319106579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008726281113922596</v>
+        <v>0.001053998013958335</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03590800985693932</v>
+        <v>0.00132017454598099</v>
       </c>
       <c r="G10" t="n">
-        <v>9.330001194030046e-05</v>
+        <v>0.0004478920018300414</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009697914123535156</v>
+        <v>0.0001253677328350022</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003130547702312469</v>
+        <v>0.0003029967483598739</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006101171020418406</v>
+        <v>0.001922249561175704</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01753792352974415</v>
+        <v>0.004560667555779219</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002671502064913511</v>
+        <v>0.0005316674942150712</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0007774815894663334</v>
+        <v>0.003118237713351846</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008261486887931824</v>
+        <v>0.001450709300115705</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03514764830470085</v>
+        <v>0.002278503961861134</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001096011255867779</v>
+        <v>0.0007852884591557086</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001095548970624804</v>
+        <v>0.001251957030035555</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001517049735412002</v>
+        <v>0.0002351079747313634</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001852522836998105</v>
+        <v>6.636972830165178e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005675066728144884</v>
+        <v>0.0008791182190179825</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002347017638385296</v>
+        <v>0.0003424242313485593</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00385128241032362</v>
+        <v>0.000730939325876534</v>
       </c>
       <c r="W10" t="n">
-        <v>6.020534783601761e-05</v>
+        <v>0.0004694988019764423</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01149065606296062</v>
+        <v>0.0004954889300279319</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004949491936713457</v>
+        <v>0.001182001549750566</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.009403318166732788</v>
+        <v>0.0001704340393189341</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.989878602325916e-05</v>
+        <v>0.000739924143999815</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.986397344619036e-05</v>
+        <v>0.0001340085291303694</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002828862518072128</v>
+        <v>0.0004746598715428263</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.004429847933351994</v>
+        <v>0.0001258550328202546</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.005210194736719131</v>
+        <v>2.964490158774424e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01666399464011192</v>
+        <v>0.0001321442541666329</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.005609860178083181</v>
+        <v>0.0002713294525165111</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0001628351747058332</v>
+        <v>0.0006943058106116951</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.008784089237451553</v>
+        <v>0.0003796544624492526</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.001529556349851191</v>
+        <v>0.0002779643109533936</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0003556887968443334</v>
+        <v>0.00065100152278319</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.000803810718934983</v>
+        <v>0.0009878408163785934</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.001582355820573866</v>
+        <v>0.0002243552298750728</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001430771226296201</v>
+        <v>0.0001842279743868858</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0006128511158749461</v>
+        <v>6.517954170703888e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.00315227173268795</v>
+        <v>0.0003764856373891234</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001003772020339966</v>
+        <v>0.0005382011877372861</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0004761391901411116</v>
+        <v>8.276147127617151e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.00377597170881927</v>
+        <v>0.0005961160059086978</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.00259011285379529</v>
+        <v>0.0001411065459251404</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.008340985514223576</v>
+        <v>0.004125706385821104</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.003346057143062353</v>
+        <v>6.008936179568991e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.003399439621716738</v>
+        <v>0.000923121755477041</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001754675409756601</v>
+        <v>0.0003105677897110581</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01533153932541609</v>
+        <v>0.0002167053753510118</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.295930218882859e-05</v>
+        <v>0.0001280201831832528</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0003141560591757298</v>
+        <v>0.0006426867330446839</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0004111175076104701</v>
+        <v>0.0007939769420772791</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.003233612747862935</v>
+        <v>0.0008100278209894896</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.001171495649032295</v>
+        <v>0.001048483420163393</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.003186667803674936</v>
+        <v>0.001071538892574608</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.007722066715359688</v>
+        <v>0.000931534799747169</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0005905400030314922</v>
+        <v>0.00158390833530575</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.007738119922578335</v>
+        <v>0.0004397814336698502</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002285311464220285</v>
+        <v>0.0003949037636630237</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.006208234000951052</v>
+        <v>0.001469397102482617</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0007026158273220062</v>
+        <v>0.0001447516115149483</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.002188900019973516</v>
+        <v>0.0009765297872945666</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.004995591007173061</v>
+        <v>0.0004827209922950715</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.004712330643087626</v>
+        <v>0.0002475768851581961</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.002877267776057124</v>
+        <v>0.0003399080014787614</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.004385066218674183</v>
+        <v>0.0005349915591068566</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004000319633632898</v>
+        <v>0.0001025082601699978</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.002135264920070767</v>
+        <v>0.0004210305050946772</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.002890180796384811</v>
+        <v>0.0006575520383194089</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.001923151779919863</v>
+        <v>0.0001348100195173174</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0001431035343557596</v>
+        <v>3.089992969762534e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002814703388139606</v>
+        <v>0.002238553250208497</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.006924412678927183</v>
+        <v>0.0007425975636579096</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.002210477367043495</v>
+        <v>0.000568346818909049</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.005103593692183495</v>
+        <v>6.751778710167855e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01096449885517359</v>
+        <v>0.0003796686651185155</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.000259028747677803</v>
+        <v>0.0009128001402132213</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0004999294178560376</v>
+        <v>0.0001645617885515094</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.005937185604125261</v>
+        <v>0.0006050997180864215</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.000599784660153091</v>
+        <v>0.0003456424456089735</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.002834070241078734</v>
+        <v>0.001015660120174289</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0003564398211892694</v>
+        <v>0.0004506758996285498</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0006504994817078114</v>
+        <v>0.0003062226751353592</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001242247642949224</v>
+        <v>0.000326675915857777</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.00598433893173933</v>
+        <v>0.0004002380010206252</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001500433543697</v>
+        <v>0.0003101370530202985</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.001212296425364912</v>
+        <v>0.0001198441532324068</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.001426613423973322</v>
+        <v>0.0004596663929987699</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0002569869393482804</v>
+        <v>0.0004312205710448325</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.002847007475793362</v>
+        <v>9.689010039437562e-05</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.005256974138319492</v>
+        <v>1.209807760460535e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.005650332663208246</v>
+        <v>0.001353647443465889</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.001011751824989915</v>
+        <v>0.001096006715670228</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.006564918905496597</v>
+        <v>0.0001824690698413178</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002562026784289628</v>
+        <v>0.0008212868124246597</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0009814981603994966</v>
+        <v>0.0008382545202039182</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.002528485376387835</v>
+        <v>5.656226130668074e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.00118246756028384</v>
+        <v>0.0002838756772689521</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.003025791840627789</v>
+        <v>0.0008858844521455467</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001020046300254762</v>
+        <v>0.0003561144112609327</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0004338455037213862</v>
+        <v>0.0006638213526457548</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.002734720706939697</v>
+        <v>0.0003880824369844049</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.006393664516508579</v>
+        <v>0.0004833237908314914</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.001773033523932099</v>
+        <v>0.0003481266903690994</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.002868186216801405</v>
+        <v>0.0001614757202332839</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.001620711293071508</v>
+        <v>0.0002510290360078216</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0004470844869501889</v>
+        <v>0.000469280406832695</v>
       </c>
       <c r="DF10" t="n">
-        <v>7.543631363660097e-05</v>
+        <v>0.0005539042176678777</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.002347486792132258</v>
+        <v>0.001240094657987356</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.002789543941617012</v>
+        <v>0.003586666658520699</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002307752380147576</v>
+        <v>0.0009614016162231565</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0003613099688664079</v>
+        <v>0.0004136333300266415</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.004441853147000074</v>
+        <v>0.0001590991450939327</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.001824970589950681</v>
+        <v>0.001074139261618257</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.001238041557371616</v>
+        <v>0.0002244547795271501</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.00338358711451292</v>
+        <v>0.00052932946709916</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.002307815477252007</v>
+        <v>0.0005139370914548635</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0007281401194632053</v>
+        <v>0.0004723666643258184</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.003140345448628068</v>
+        <v>0.0003545284853316844</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.001713703735731542</v>
+        <v>0.001010237727314234</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003472152631729841</v>
+        <v>0.0006239631911739707</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.002055499702692032</v>
+        <v>4.449770131031983e-06</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.000628768524620682</v>
+        <v>4.06726794608403e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.00259355828166008</v>
+        <v>0.0008957055979408324</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001073332037776709</v>
+        <v>0.0003826488682534546</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0004572396283037961</v>
+        <v>0.000123735488159582</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.001493002753704786</v>
+        <v>0.001040686154738069</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.004417667631059885</v>
+        <v>9.946538921212777e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.003258048323914409</v>
+        <v>0.0009991191327571869</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001769362483173609</v>
+        <v>0.0007259366102516651</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0004671820206567645</v>
+        <v>0.0003669302095659077</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.421446308493614e-07</v>
+        <v>4.987442298443057e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.003396898740902543</v>
+        <v>8.456107752863318e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003069070808123797</v>
+        <v>1.985122798942029e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.003965874668210745</v>
+        <v>0.0006053695688024163</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001209506066516042</v>
+        <v>9.510575182503089e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.001505670137703419</v>
+        <v>0.0001934681058628485</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.009173311293125153</v>
+        <v>0.0005690761609002948</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.006425430066883564</v>
+        <v>0.0003359107067808509</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0002491448249202222</v>
+        <v>0.0006520287715829909</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.004843915347009897</v>
+        <v>0.0002274674479849637</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.003148910589516163</v>
+        <v>0.0001502875529695302</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.00289472471922636</v>
+        <v>0.0001997642830247059</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0003545997897163033</v>
+        <v>0.0002611899399198592</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.003282521851360798</v>
+        <v>0.0005082182469777763</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.002021949738264084</v>
+        <v>5.275035073282197e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.001418128842487931</v>
+        <v>0.0006697946228086948</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.006269128527492285</v>
+        <v>0.0009529085364192724</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001644875970669091</v>
+        <v>0.0003348457103129476</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0009298503864556551</v>
+        <v>0.001181352301500738</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.004351637791842222</v>
+        <v>0.0004635402583517134</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0007456688326783478</v>
+        <v>0.0002494695363566279</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.002340061822906137</v>
+        <v>0.0008623080793768167</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.001471823430620134</v>
+        <v>0.0002449683961458504</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.25437868013978e-05</v>
+        <v>0.0004662623978219926</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002011005766689777</v>
+        <v>0.0001922980591189116</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.005755738355219364</v>
+        <v>0.0004474756715353578</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001720859785564244</v>
+        <v>0.0004286706971470267</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.002537121763452888</v>
+        <v>8.141926082316786e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.002061077393591404</v>
+        <v>0.0004508578276727349</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.002658037701621652</v>
+        <v>0.0002990320790559053</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.004819364752620459</v>
+        <v>0.0006558746681548655</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.008208440616726875</v>
+        <v>0.0007638728711754084</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.002051252406090498</v>
+        <v>0.00110002642031759</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.00579490140080452</v>
+        <v>0.00012888629862573</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.00626299437135458</v>
+        <v>0.0001269156346097589</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.001369116478599608</v>
+        <v>1.957356289494783e-06</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0004708089982159436</v>
+        <v>0.0006276934873312712</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.005721793510019779</v>
+        <v>0.0005443866248242557</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.00232694111764431</v>
+        <v>0.0001604892895556986</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.006154830567538738</v>
+        <v>0.0002171682863263413</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003041023155674338</v>
+        <v>7.109687430784106e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.01174579560756683</v>
+        <v>0.0002592676901258528</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.005841680336743593</v>
+        <v>0.001868758117780089</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.008907260373234749</v>
+        <v>0.0003536125004757196</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0009356291266158223</v>
+        <v>0.000770644168369472</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0001851371198426932</v>
+        <v>0.0004534019390121102</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001627547200769186</v>
+        <v>0.0004706257313955575</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.002108503831550479</v>
+        <v>0.0009809596231207252</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0003595587913878262</v>
+        <v>0.000115335889859125</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0002566678449511528</v>
+        <v>6.631611904595047e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0007147074793465436</v>
+        <v>5.603741010418162e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.002002781257033348</v>
+        <v>0.0003977697051595896</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0004879101179540157</v>
+        <v>0.0007894745795056224</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001531512010842562</v>
+        <v>0.001983851427212358</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.007772008888423443</v>
+        <v>0.000463117437902838</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.001594819827005267</v>
+        <v>0.0006323783891275525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.009156348183751106</v>
+        <v>0.03737068921327591</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01999912224709988</v>
+        <v>0.3217195570468903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005605532322078943</v>
+        <v>0.03067965060472488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005369151011109352</v>
+        <v>0.229483887553215</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02253743261098862</v>
+        <v>0.02875650115311146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08425241708755493</v>
+        <v>0.2613096833229065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02305776812136173</v>
+        <v>0.01400620117783546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05229899659752846</v>
+        <v>0.1274160444736481</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009695544838905334</v>
+        <v>0.0642784982919693</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00983966700732708</v>
+        <v>0.08555257320404053</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01368813496083021</v>
+        <v>0.2741750478744507</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006782500073313713</v>
+        <v>0.02072212658822536</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000822069589048624</v>
+        <v>0.1983650177717209</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0273841880261898</v>
+        <v>0.01928907632827759</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08962079882621765</v>
+        <v>0.2605753540992737</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0007277834229171276</v>
+        <v>0.03637361153960228</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04091892763972282</v>
+        <v>0.008558597415685654</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003311111591756344</v>
+        <v>0.03641487285494804</v>
       </c>
       <c r="S11" t="n">
-        <v>0.009475650265812874</v>
+        <v>0.008271743543446064</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002314246259629726</v>
+        <v>0.01226460374891758</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01048887241631746</v>
+        <v>0.04222498834133148</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007768826093524694</v>
+        <v>0.05406596511602402</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01536299474537373</v>
+        <v>0.07273294031620026</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0272575356066227</v>
+        <v>0.02413001656532288</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.008010980673134327</v>
+        <v>0.03020328283309937</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01289535593241453</v>
+        <v>0.05604981631040573</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.003205439541488886</v>
+        <v>0.04563035815954208</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.008652651682496071</v>
+        <v>0.01870910823345184</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01751293800771236</v>
+        <v>0.006123736966401339</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.006072460673749447</v>
+        <v>0.0317186713218689</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0113474428653717</v>
+        <v>0.002626385539770126</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05844142287969589</v>
+        <v>0.02173427864909172</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01746176183223724</v>
+        <v>0.02259529195725918</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01111664436757565</v>
+        <v>0.007675993721932173</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.009565887972712517</v>
+        <v>0.01450768392533064</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.008089557290077209</v>
+        <v>0.02231215313076973</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.007697124965488911</v>
+        <v>0.04829558730125427</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.00527997687458992</v>
+        <v>0.03391605243086815</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.00725478446111083</v>
+        <v>0.01860941387712955</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.007525919005274773</v>
+        <v>0.0298760961741209</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.005282717756927013</v>
+        <v>0.01602529734373093</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.009146785363554955</v>
+        <v>0.03898439928889275</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.006925032939761877</v>
+        <v>0.01801123097538948</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001734012854285538</v>
+        <v>0.03884419053792953</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01143513433635235</v>
+        <v>0.03945731744170189</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.00506620341911912</v>
+        <v>0.005122460424900055</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01128478441387415</v>
+        <v>0.1914522349834442</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0177074521780014</v>
+        <v>0.02270926535129547</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01270992122590542</v>
+        <v>0.07905389368534088</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.001349262893199921</v>
+        <v>0.04002087190747261</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.01814480684697628</v>
+        <v>0.1338228285312653</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.004894376732409</v>
+        <v>0.0552421435713768</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.001148678362369537</v>
+        <v>0.0251832976937294</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.002758908085525036</v>
+        <v>0.07571809738874435</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.005310256965458393</v>
+        <v>0.02971283346414566</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.02198960073292255</v>
+        <v>0.08513103425502777</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.005336414091289043</v>
+        <v>0.08483453840017319</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0135125769302249</v>
+        <v>0.02999397739768028</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0002146041952073574</v>
+        <v>0.03381996974349022</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01893214508891106</v>
+        <v>0.02948732301592827</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01722791790962219</v>
+        <v>0.04436928406357765</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.03103937767446041</v>
+        <v>0.03735395893454552</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003859739052131772</v>
+        <v>0.03934058919548988</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01223813928663731</v>
+        <v>0.01932290755212307</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0006407632026821375</v>
+        <v>0.05436165630817413</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.006972586270421743</v>
+        <v>0.04422147572040558</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.009354895912110806</v>
+        <v>0.01906754821538925</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01411866769194603</v>
+        <v>0.001339428592473269</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01581921987235546</v>
+        <v>0.004752091132104397</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.001782617764547467</v>
+        <v>0.02225406840443611</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.007436133921146393</v>
+        <v>0.02472692169249058</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.008856702595949173</v>
+        <v>0.007812278345227242</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.008535703644156456</v>
+        <v>0.01266524288803339</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.007353152614086866</v>
+        <v>0.1095548793673515</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.007544945925474167</v>
+        <v>0.05267888680100441</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.02537977881729603</v>
+        <v>0.06485909223556519</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01316148228943348</v>
+        <v>0.01937993243336678</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.03571893274784088</v>
+        <v>0.09072965383529663</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.001577907358296216</v>
+        <v>0.00482402928173542</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.008491599932312965</v>
+        <v>0.02405717968940735</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0106866043061018</v>
+        <v>0.0488828606903553</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0004956777556799352</v>
+        <v>0.00804419256746769</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0102483443915844</v>
+        <v>0.0450594387948513</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0002915184013545513</v>
+        <v>0.04710397869348526</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00340970023535192</v>
+        <v>0.03014113381505013</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.002665196778252721</v>
+        <v>0.01100831013172865</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.01363569218665361</v>
+        <v>0.04031059890985489</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.004418862052261829</v>
+        <v>0.02370886318385601</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.006691647227853537</v>
+        <v>0.02847889438271523</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.003385030431672931</v>
+        <v>0.03291371837258339</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.02137990482151508</v>
+        <v>0.05457184091210365</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01528812944889069</v>
+        <v>0.01356694474816322</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.00620675552636385</v>
+        <v>0.009711172431707382</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0002575239923316985</v>
+        <v>0.05184077098965645</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.001750760246068239</v>
+        <v>0.005138168577104807</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.01816020905971527</v>
+        <v>0.02646303549408913</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.007196467835456133</v>
+        <v>0.0692262202501297</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02593554928898811</v>
+        <v>0.04688046127557755</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.006135125178843737</v>
+        <v>0.008374212309718132</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0001151545438915491</v>
+        <v>0.002506394172087312</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0122491754591465</v>
+        <v>0.04306318238377571</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.00133696454577148</v>
+        <v>0.04722166806459427</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.004113081376999617</v>
+        <v>0.04496162384748459</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.007442412432283163</v>
+        <v>0.01198110263794661</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01434066519141197</v>
+        <v>0.04427884146571159</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.005870138760656118</v>
+        <v>0.02203365787863731</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.009701539762318134</v>
+        <v>0.04480616748332977</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.004202318843454123</v>
+        <v>0.02028554305434227</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.007346772588789463</v>
+        <v>0.01473829988390207</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001547497231513262</v>
+        <v>0.00376679771579802</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.009563479572534561</v>
+        <v>0.01454881485551596</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0002590368967503309</v>
+        <v>0.139159694314003</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.008481569588184357</v>
+        <v>0.04893504083156586</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.005856244824826717</v>
+        <v>0.01438118238002062</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0106404721736908</v>
+        <v>0.0399501621723175</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.004951275885105133</v>
+        <v>0.04986762255430222</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0003674713661894202</v>
+        <v>0.04605065658688545</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.006250291597098112</v>
+        <v>0.001652928767725825</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.002274214057251811</v>
+        <v>0.01537307910621166</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.00113668036647141</v>
+        <v>0.02994381822645664</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.007785937748849392</v>
+        <v>0.01157646812498569</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.009582007303833961</v>
+        <v>0.0004095358308404684</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01682383939623833</v>
+        <v>0.01426715962588787</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.003441584762185812</v>
+        <v>0.0167982280254364</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.002418844727799296</v>
+        <v>0.003005178179591894</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.001141131855547428</v>
+        <v>0.04330861568450928</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.008475467562675476</v>
+        <v>0.006123499013483524</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.002476810943335295</v>
+        <v>0.01619100943207741</v>
       </c>
       <c r="DY11" t="n">
-        <v>7.167644798755646e-05</v>
+        <v>0.05544985830783844</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.008816085755825043</v>
+        <v>0.0180203877389431</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01349354069679976</v>
+        <v>0.02220473811030388</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.002411058638244867</v>
+        <v>0.0463998019695282</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.004160706885159016</v>
+        <v>0.00916533637791872</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.003467874834313989</v>
+        <v>0.006637102924287319</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0006278489017859101</v>
+        <v>0.01313110440969467</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0005163291934877634</v>
+        <v>0.01388421468436718</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.003947511781007051</v>
+        <v>0.04581531509757042</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0017708899686113</v>
+        <v>0.03965583816170692</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.001309316605329514</v>
+        <v>0.005510028917342424</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01634359359741211</v>
+        <v>0.01256384141743183</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.02271054871380329</v>
+        <v>0.03245771676301956</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.001667676260694861</v>
+        <v>0.02697017602622509</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01244109403342009</v>
+        <v>0.0166510958224535</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.007954997010529041</v>
+        <v>0.01167966425418854</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.003748001996427774</v>
+        <v>0.003577079623937607</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.03122749738395214</v>
+        <v>0.01470254827290773</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.008059010840952396</v>
+        <v>0.04348230361938477</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.003847549436613917</v>
+        <v>0.04647672921419144</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.007220281753689051</v>
+        <v>0.00770633528009057</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01392252091318369</v>
+        <v>0.05053712800145149</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.006605944130569696</v>
+        <v>0.0536159873008728</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.01505056582391262</v>
+        <v>0.1009166538715363</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.008201427757740021</v>
+        <v>0.001641750801354647</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0008908524760045111</v>
+        <v>0.0005329269915819168</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.008676744066178799</v>
+        <v>0.03226180374622345</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.002166992984712124</v>
+        <v>0.03941985592246056</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.007213057950139046</v>
+        <v>0.04227092489600182</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.006762892473489046</v>
+        <v>0.01543196849524975</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.01365067064762115</v>
+        <v>0.03322456032037735</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.005399759858846664</v>
+        <v>0.04280689358711243</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.005735398270189762</v>
+        <v>0.03251688927412033</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.002270088065415621</v>
+        <v>0.0316695049405098</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.004641479346901178</v>
+        <v>0.01775004714727402</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.003199613653123379</v>
+        <v>0.04072069749236107</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.006248097401112318</v>
+        <v>0.04449585825204849</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.004061510786414146</v>
+        <v>0.06314310431480408</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0006986547959968448</v>
+        <v>0.001108601340092719</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.01810559816658497</v>
+        <v>0.01315868366509676</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.01339569129049778</v>
+        <v>0.002545872703194618</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.006988606881350279</v>
+        <v>0.01887943595647812</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.01052168756723404</v>
+        <v>0.01874993555247784</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.00273513188585639</v>
+        <v>0.01999128982424736</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.003249194007366896</v>
+        <v>0.04824937134981155</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.006358291953802109</v>
+        <v>0.06154897436499596</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.001154849538579583</v>
+        <v>0.06599975377321243</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.008843682706356049</v>
+        <v>0.05312375724315643</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.01342062093317509</v>
+        <v>0.06148622930049896</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.01143114920705557</v>
+        <v>0.07512025535106659</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.006916667334735394</v>
+        <v>0.0098979277536273</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.007392282597720623</v>
+        <v>0.002903033746406436</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.009099262766540051</v>
+        <v>0.05924385040998459</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.007703352719545364</v>
+        <v>0.02904324606060982</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.006306340452283621</v>
+        <v>0.02180701680481434</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.01910875737667084</v>
+        <v>0.02833087742328644</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.005819796584546566</v>
+        <v>0.01058767177164555</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.008540293201804161</v>
+        <v>0.004680175334215164</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.001328770071268082</v>
+        <v>0.1582753360271454</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.008027819916605949</v>
+        <v>0.00745137594640255</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0003433229867368937</v>
+        <v>0.006576872430741787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02835532464087009</v>
+        <v>0.004343653097748756</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09697802364826202</v>
+        <v>0.3288232386112213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4041332602500916</v>
+        <v>0.0005675407592207193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02947916090488434</v>
+        <v>0.1357096433639526</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2272633910179138</v>
+        <v>0.06591553241014481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2977825999259949</v>
+        <v>0.06433519721031189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05207213014364243</v>
+        <v>0.02953149750828743</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02352445013821125</v>
+        <v>0.0436285138130188</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09680213779211044</v>
+        <v>0.05433078482747078</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04072324931621552</v>
+        <v>0.0499015636742115</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1253978610038757</v>
+        <v>0.2556174397468567</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4174008965492249</v>
+        <v>0.002494726562872529</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07974269241094589</v>
+        <v>0.1082673743367195</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1801595687866211</v>
+        <v>0.1075705513358116</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3103325068950653</v>
+        <v>0.1190094128251076</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04985649138689041</v>
+        <v>0.02050942927598953</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01558027602732182</v>
+        <v>0.02078153379261494</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1884741187095642</v>
+        <v>0.03011953085660934</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02316558919847012</v>
+        <v>0.02758365496993065</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05495307594537735</v>
+        <v>0.05214548110961914</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05150070041418076</v>
+        <v>0.02631457708775997</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002494911197572947</v>
+        <v>0.04246247559785843</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04035501927137375</v>
+        <v>0.049185611307621</v>
       </c>
       <c r="X12" t="n">
-        <v>0.08169890940189362</v>
+        <v>0.009602803736925125</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0629095584154129</v>
+        <v>0.03123973309993744</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0936734676361084</v>
+        <v>0.06587529927492142</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04390827193856239</v>
+        <v>0.05297980830073357</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03148704022169113</v>
+        <v>0.00203000009059906</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1667897254228592</v>
+        <v>0.03079812228679657</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.008771656081080437</v>
+        <v>0.008683055639266968</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.002571113407611847</v>
+        <v>0.008597569540143013</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1997731029987335</v>
+        <v>0.01853474415838718</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01732686161994934</v>
+        <v>0.06389579176902771</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.05563881620764732</v>
+        <v>0.01335345115512609</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1291625052690506</v>
+        <v>0.004833799321204424</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1489101350307465</v>
+        <v>0.007783558685332537</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0006722074467688799</v>
+        <v>0.04390652105212212</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04562968388199806</v>
+        <v>0.06953492015600204</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.103736475110054</v>
+        <v>0.009772438555955887</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.02555019222199917</v>
+        <v>0.01771024614572525</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.02191859297454357</v>
+        <v>0.01570744812488556</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.07967046648263931</v>
+        <v>0.02956656739115715</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.02695810049772263</v>
+        <v>0.01935957558453083</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.002391112968325615</v>
+        <v>0.00339619698934257</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.02796592190861702</v>
+        <v>0.04441668465733528</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.03319672122597694</v>
+        <v>0.03786163777112961</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.01025484502315521</v>
+        <v>0.2387289255857468</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1964738070964813</v>
+        <v>0.01343224570155144</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.06382540613412857</v>
+        <v>0.05087809264659882</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.09951211512088776</v>
+        <v>0.00715850293636322</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.05674357339739799</v>
+        <v>0.05735098570585251</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01900688745081425</v>
+        <v>0.04273519665002823</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.00488608330488205</v>
+        <v>0.01384117640554905</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02614066191017628</v>
+        <v>0.04062075912952423</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.03852841630578041</v>
+        <v>0.006545577198266983</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0535702109336853</v>
+        <v>0.03449260070919991</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.03333859145641327</v>
+        <v>0.05526180192828178</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.01571857184171677</v>
+        <v>0.01636851951479912</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.2655510306358337</v>
+        <v>0.06304516643285751</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.09858187288045883</v>
+        <v>0.01604320853948593</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.05550305917859077</v>
+        <v>0.03929434344172478</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0294964425265789</v>
+        <v>0.02629866451025009</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.04505301266908646</v>
+        <v>0.03190615028142929</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.02730131149291992</v>
+        <v>0.0125996358692646</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02836614474654198</v>
+        <v>0.03133486956357956</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04391524568200111</v>
+        <v>0.01169149205088615</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.05030639469623566</v>
+        <v>0.007039159536361694</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.06330804526805878</v>
+        <v>0.03652789443731308</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.01788350194692612</v>
+        <v>0.0386146754026413</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.004613125696778297</v>
+        <v>0.003822286613285542</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.08118581771850586</v>
+        <v>0.003474972443655133</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.03483559936285019</v>
+        <v>0.02891368791460991</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.009989252313971519</v>
+        <v>0.03021667525172234</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0687081590294838</v>
+        <v>0.1386108100414276</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.1333292871713638</v>
+        <v>0.039827611297369</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.009776664897799492</v>
+        <v>0.05352893099188805</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.06773591786623001</v>
+        <v>0.03186579048633575</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.1745827794075012</v>
+        <v>0.02878167107701302</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.01376776583492756</v>
+        <v>0.01109728496521711</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01055303029716015</v>
+        <v>0.0276767835021019</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02761959843337536</v>
+        <v>0.04869101196527481</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0104022491723299</v>
+        <v>0.0001145480200648308</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0148261608555913</v>
+        <v>0.05120637640357018</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.07154245674610138</v>
+        <v>0.03199132531881332</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.01492663286626339</v>
+        <v>0.01828872412443161</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01663791574537754</v>
+        <v>0.002598873805254698</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.05847631767392159</v>
+        <v>0.008067531511187553</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.007869669236242771</v>
+        <v>0.01025413535535336</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.001127100549638271</v>
+        <v>0.01315568387508392</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.00986078567802906</v>
+        <v>0.02148346789181232</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0557183064520359</v>
+        <v>0.0739281177520752</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.003822918981313705</v>
+        <v>0.01818746700882912</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.09732622653245926</v>
+        <v>0.00337483617477119</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0490693636238575</v>
+        <v>0.03363391011953354</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1356808990240097</v>
+        <v>0.03628049790859222</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.03856439143419266</v>
+        <v>0.0171019434928894</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.01305107958614826</v>
+        <v>0.0725395530462265</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.006387404166162014</v>
+        <v>0.0398380383849144</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.09944276511669159</v>
+        <v>0.03276688605546951</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.006322260946035385</v>
+        <v>0.002102598547935486</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.01425862591713667</v>
+        <v>0.05050605908036232</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.06364397704601288</v>
+        <v>0.03442032635211945</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.02388213388621807</v>
+        <v>0.02999543584883213</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0726226270198822</v>
+        <v>0.004941452760249376</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.04468536376953125</v>
+        <v>0.01540462579578161</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.007926205173134804</v>
+        <v>0.01415688265115023</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02144522964954376</v>
+        <v>0.02208015695214272</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.009350928477942944</v>
+        <v>0.01695789210498333</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0252821147441864</v>
+        <v>0.02266259118914604</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.06066092848777771</v>
+        <v>0.04434774443507195</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02772059477865696</v>
+        <v>0.005563473328948021</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.07194013148546219</v>
+        <v>0.1433678269386292</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1038907840847969</v>
+        <v>0.02253533899784088</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01258367951959372</v>
+        <v>2.008839510381222e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.02999453991651535</v>
+        <v>0.03334736451506615</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.1212294474244118</v>
+        <v>0.01432024408131838</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.01377419754862785</v>
+        <v>0.01109485793858767</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02936756983399391</v>
+        <v>0.009692491963505745</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0142898578196764</v>
+        <v>0.02286003530025482</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.01352841779589653</v>
+        <v>0.01274090632796288</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.004259186331182718</v>
+        <v>0.01924460940063</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01438913866877556</v>
+        <v>0.01944223046302795</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.001089639030396938</v>
+        <v>0.002193593420088291</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.04535814002156258</v>
+        <v>0.01807059906423092</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0330357514321804</v>
+        <v>0.004149137996137142</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.03989383950829506</v>
+        <v>0.05395515263080597</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.05391329526901245</v>
+        <v>0.003477322403341532</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.02675072848796844</v>
+        <v>0.03847698867321014</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.003718621097505093</v>
+        <v>0.05171637982130051</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0645049586892128</v>
+        <v>0.01703405566513538</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.02859771251678467</v>
+        <v>0.02188134007155895</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.03037993237376213</v>
+        <v>0.00684910686686635</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.05299016088247299</v>
+        <v>0.007441733498126268</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01836439035832882</v>
+        <v>0.004634655080735683</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.006918419152498245</v>
+        <v>0.006372049916535616</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.005762917920947075</v>
+        <v>0.02871881052851677</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.05388603359460831</v>
+        <v>0.02282047644257545</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.08413396775722504</v>
+        <v>0.02104905992746353</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.03009486570954323</v>
+        <v>0.01298452541232109</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.08867339044809341</v>
+        <v>0.006511096376925707</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.08021201193332672</v>
+        <v>0.004390910267829895</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.02416810020804405</v>
+        <v>0.01642939820885658</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001627778634428978</v>
+        <v>0.004811582155525684</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.04702096804976463</v>
+        <v>0.0004951924784108996</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.03705105185508728</v>
+        <v>0.01329190284013748</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.05211946740746498</v>
+        <v>0.02404818311333656</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.006339352577924728</v>
+        <v>0.04519650712609291</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.0310368537902832</v>
+        <v>0.02292722091078758</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.00713043287396431</v>
+        <v>0.0171913206577301</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.007375003769993782</v>
+        <v>0.04655447602272034</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.033609539270401</v>
+        <v>0.04840492457151413</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.04438037425279617</v>
+        <v>0.07268539816141129</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.08827919512987137</v>
+        <v>0.009006023406982422</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02090973034501076</v>
+        <v>0.003267453517764807</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.003814920550212264</v>
+        <v>0.04746159538626671</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.06993863731622696</v>
+        <v>0.02610531635582447</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.01795723289251328</v>
+        <v>0.02288868464529514</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.06006153672933578</v>
+        <v>0.00915123987942934</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.03924014791846275</v>
+        <v>0.0120310140773654</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.007639218587428331</v>
+        <v>0.02441995777189732</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.009529151953756809</v>
+        <v>0.01157455425709486</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0006329921307042241</v>
+        <v>0.02935818396508694</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01307736709713936</v>
+        <v>0.006177033763378859</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.02364670112729073</v>
+        <v>0.01167193986475468</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.08511946350336075</v>
+        <v>0.04071632772684097</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.04701051115989685</v>
+        <v>0.02035030722618103</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.01671827398240566</v>
+        <v>0.003025831654667854</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.03736275434494019</v>
+        <v>0.01297757215797901</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.09973698109388351</v>
+        <v>0.0004435675218701363</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02528131008148193</v>
+        <v>0.02240563742816448</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.005810614675283432</v>
+        <v>0.00074491195846349</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.176744669675827</v>
+        <v>0.02762640826404095</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.1168285459280014</v>
+        <v>0.05464087426662445</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.111289881169796</v>
+        <v>0.03351402655243874</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.05590993165969849</v>
+        <v>0.03083214163780212</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0593552440404892</v>
+        <v>0.01474238652735949</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.1356419920921326</v>
+        <v>0.006811202503740788</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.01373453810811043</v>
+        <v>0.05748008191585541</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.04843904823064804</v>
+        <v>0.003752750344574451</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.03846175968647003</v>
+        <v>0.002612411975860596</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.005883382633328438</v>
+        <v>0.05995987355709076</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.06368723511695862</v>
+        <v>0.01324838865548372</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0743885263800621</v>
+        <v>0.02709169499576092</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01702689751982689</v>
+        <v>0.01170891150832176</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.03674269840121269</v>
+        <v>0.04593956843018532</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.006505632773041725</v>
+        <v>0.04680350050330162</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.02554168738424778</v>
+        <v>0.1511508226394653</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.1175792515277863</v>
+        <v>0.01315079070627689</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.03799285367131233</v>
+        <v>0.005504202097654343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009229781106114388</v>
+        <v>0.0001631181658012792</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0312729999423027</v>
+        <v>0.001889335573650897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04802093282341957</v>
+        <v>0.0001668090262683108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08335050940513611</v>
+        <v>0.0006202576332725585</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00551363080739975</v>
+        <v>0.0005062422133050859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.258066713809967</v>
+        <v>0.0008933903882279992</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05066651850938797</v>
+        <v>2.122368096024729e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1967175155878067</v>
+        <v>0.0005238043959252536</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06893011927604675</v>
+        <v>3.937230758310761e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01324937772005796</v>
+        <v>0.0003159629413858056</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01247389800846577</v>
+        <v>0.001763940206728876</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04953864961862564</v>
+        <v>2.487436540832277e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07836701720952988</v>
+        <v>0.0003787704044952989</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05235361307859421</v>
+        <v>6.062746251700446e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2266694605350494</v>
+        <v>0.0009548652451485395</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01810078136622906</v>
+        <v>4.206172889098525e-06</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2040732502937317</v>
+        <v>0.000162035139510408</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1271948218345642</v>
+        <v>6.340137770166621e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03749003633856773</v>
+        <v>5.778417107649148e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03075888752937317</v>
+        <v>0.0001470395072828978</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01293033827096224</v>
+        <v>7.867005479056388e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0383535660803318</v>
+        <v>0.0002334041200811043</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04571050032973289</v>
+        <v>0.0001604351418791339</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03999197855591774</v>
+        <v>2.668241540959571e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03308131545782089</v>
+        <v>4.063694359501824e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02550813369452953</v>
+        <v>0.0001636910455999896</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00204429286532104</v>
+        <v>5.545915337279439e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.008699125610291958</v>
+        <v>2.59093358181417e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006117023527622223</v>
+        <v>6.759794814570341e-06</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003536582924425602</v>
+        <v>3.052860483876429e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03389638289809227</v>
+        <v>0.0001341817405773327</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06940633803606033</v>
+        <v>0.0001374992716591805</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.004926570691168308</v>
+        <v>2.170685183955356e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.07631358504295349</v>
+        <v>4.709996210294776e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.007180727086961269</v>
+        <v>0.0001083903480321169</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01932487264275551</v>
+        <v>0.0001226260210387409</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.007058112882077694</v>
+        <v>0.000315203593345359</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01624820381402969</v>
+        <v>0.0001255485694855452</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.04208351299166679</v>
+        <v>2.97851838695351e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01357324980199337</v>
+        <v>1.8976119463332e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.08293270319700241</v>
+        <v>5.651088213198818e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.04737145453691483</v>
+        <v>0.0002604001783765852</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.007618882693350315</v>
+        <v>5.439535016193986e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02840171009302139</v>
+        <v>0.0001606038713362068</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01333559118211269</v>
+        <v>0.0002110010100295767</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.02630236931145191</v>
+        <v>4.611798067344353e-05</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.01218301802873611</v>
+        <v>0.001012469059787691</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.01890728622674942</v>
+        <v>0.0002355398901272565</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0208688210695982</v>
+        <v>4.383124178275466e-06</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01612938940525055</v>
+        <v>0.000290874857455492</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.125598818063736</v>
+        <v>0.0004278796259313822</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002749781124293804</v>
+        <v>7.924743840703741e-05</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1078640967607498</v>
+        <v>0.0002002502878895029</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.04155302047729492</v>
+        <v>0.000166278550750576</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.005117502063512802</v>
+        <v>3.376138920430094e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.00538513483479619</v>
+        <v>0.000406842038501054</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.02169831469655037</v>
+        <v>0.0004848832322750241</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.06775491684675217</v>
+        <v>7.934165478218347e-05</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.04120320081710815</v>
+        <v>0.0001632343046367168</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.04184335470199585</v>
+        <v>0.0001118674990721047</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.02601850964128971</v>
+        <v>0.0001115993363782763</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.04590711370110512</v>
+        <v>0.0001129989686887711</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01816695556044579</v>
+        <v>7.634709618287161e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.01474241260439157</v>
+        <v>0.0001267630723305047</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.03056398779153824</v>
+        <v>0.0002111915091518313</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.006289815995842218</v>
+        <v>0.000210797501495108</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01286007650196552</v>
+        <v>7.818379526725039e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01787584088742733</v>
+        <v>7.37597729312256e-05</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.02167815901339054</v>
+        <v>4.603511115419678e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.03360948711633682</v>
+        <v>4.865483788307756e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.01000164821743965</v>
+        <v>7.601972902193666e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.01385062094777822</v>
+        <v>0.0002356663899263367</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0192612037062645</v>
+        <v>3.243096216465347e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.010019451379776</v>
+        <v>0.0006328243762254715</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.006028676871210337</v>
+        <v>0.0001935378677444533</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.01185613684356213</v>
+        <v>3.565770748537034e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.003468975424766541</v>
+        <v>0.0001070861326297745</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.08580935001373291</v>
+        <v>0.0002413707552477717</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.02406854741275311</v>
+        <v>4.260387504473329e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.06599242985248566</v>
+        <v>9.238642815034837e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.02590850740671158</v>
+        <v>8.944071305450052e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.01624414324760437</v>
+        <v>5.237705772742629e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.006906737573444843</v>
+        <v>0.0003552263078745455</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.01282060425728559</v>
+        <v>0.0001334794942522421</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03472708910703659</v>
+        <v>0.000100217257568147</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.005917539354413748</v>
+        <v>8.533026266377419e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.04400007799267769</v>
+        <v>6.177782779559493e-05</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.01026268396526575</v>
+        <v>9.604453225620091e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.02357188425958157</v>
+        <v>0.0001121832829085179</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.006757550872862339</v>
+        <v>9.568981477059424e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.05550510808825493</v>
+        <v>0.0004060997162014246</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.008978962898254395</v>
+        <v>0.0001427193928975612</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.01766295172274113</v>
+        <v>1.067832999979146e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0342286229133606</v>
+        <v>0.0002944590232800692</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.07751230150461197</v>
+        <v>0.000269729207502678</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.04292979836463928</v>
+        <v>0.000475928740343079</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0270459707826376</v>
+        <v>0.0003509453381411731</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.04042233899235725</v>
+        <v>0.0001534642797196284</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.03451057523488998</v>
+        <v>6.687518180115148e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.01735055819153786</v>
+        <v>4.686772808781825e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.01692317984998226</v>
+        <v>0.0003457935526967049</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.01308013033121824</v>
+        <v>0.0001857899769674987</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.02903417497873306</v>
+        <v>0.0001760130107868463</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01163710653781891</v>
+        <v>6.980042235227302e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.05176666006445885</v>
+        <v>0.0001013039582176134</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.003900780342519283</v>
+        <v>7.840368198230863e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.04002230241894722</v>
+        <v>0.0002136842958861962</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.005518639460206032</v>
+        <v>7.674968219362199e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.05290334671735764</v>
+        <v>0.0001854291040217504</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.06502243131399155</v>
+        <v>0.0001358614681521431</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.004149721469730139</v>
+        <v>1.657517714193091e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.03979941457509995</v>
+        <v>0.0005935899680480361</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.04847100377082825</v>
+        <v>0.0007079532369971275</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.05726982653141022</v>
+        <v>0.0001573245681356639</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.05195794627070427</v>
+        <v>0.0002658727462403476</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.01022115349769592</v>
+        <v>0.0002777804038487375</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.04466418549418449</v>
+        <v>0.0002659239689819515</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01552106998860836</v>
+        <v>9.680886432761326e-05</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.01679669134318829</v>
+        <v>0.0002035030047409236</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.02132931537926197</v>
+        <v>0.0001132723773480393</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.02660279348492622</v>
+        <v>0.0002021978434640914</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02262899652123451</v>
+        <v>2.729173320403788e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.02863432094454765</v>
+        <v>0.0001303450844716281</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.01371705159544945</v>
+        <v>7.313933747354895e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.001431028358638287</v>
+        <v>7.107741839718074e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.02198389172554016</v>
+        <v>0.0001051186700351536</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001208117231726646</v>
+        <v>1.073316525435075e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.00712072616443038</v>
+        <v>8.342448563780636e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.002859428524971008</v>
+        <v>0.000190667255083099</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.02937463857233524</v>
+        <v>2.904977736761793e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.006604444235563278</v>
+        <v>0.0001145925925811753</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.01603863202035427</v>
+        <v>7.418404857162386e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.004545946605503559</v>
+        <v>0.0001109280274249613</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.01250911597162485</v>
+        <v>4.2526371544227e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01310233771800995</v>
+        <v>0.0001240818237420171</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.05653539299964905</v>
+        <v>0.0002907193847931921</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01306586991995573</v>
+        <v>0.000389825931051746</v>
       </c>
       <c r="EH13" t="n">
-        <v>1.597224036231637e-05</v>
+        <v>0.0002340539067517966</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0320705883204937</v>
+        <v>9.900775330606848e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01649181544780731</v>
+        <v>0.000102222191344481</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.06204804033041</v>
+        <v>8.934622746892273e-05</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.005195117089897394</v>
+        <v>5.137198604643345e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.02738344855606556</v>
+        <v>2.587077506177593e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.004970657639205456</v>
+        <v>3.026127706107218e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.01680698804557323</v>
+        <v>4.475095920497552e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01851553842425346</v>
+        <v>0.0001681698195170611</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.004828105680644512</v>
+        <v>0.0001980321103474125</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.03427635133266449</v>
+        <v>0.0001700302673270926</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.009439335204660892</v>
+        <v>9.772025805432349e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.002840751316398382</v>
+        <v>0.0002633362601045519</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.02081072703003883</v>
+        <v>0.0001939963258337229</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0537165068089962</v>
+        <v>0.0004204581491649151</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.01472212001681328</v>
+        <v>7.263838779181242e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.01744321919977665</v>
+        <v>7.955156615935266e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01698429137468338</v>
+        <v>0.0003238018252886832</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.01670234091579914</v>
+        <v>0.0001497794582974166</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.03529531881213188</v>
+        <v>9.440102439839393e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01136396080255508</v>
+        <v>7.331310916924849e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.04728829860687256</v>
+        <v>7.212588388938457e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.009688578546047211</v>
+        <v>0.0001129485535784625</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.04061351343989372</v>
+        <v>0.0001809921959647909</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.002704890444874763</v>
+        <v>0.000111073961306829</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001077596331015229</v>
+        <v>0.000102160673122853</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02248917706310749</v>
+        <v>2.01089051188319e-06</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0181257463991642</v>
+        <v>0.0002904756984207779</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.06541664898395538</v>
+        <v>0.0002359157806495205</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.008078953251242638</v>
+        <v>0.000143042765557766</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0150712076574564</v>
+        <v>0.0002023005217779428</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0003521075705066323</v>
+        <v>1.280935612157919e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.01699493639171124</v>
+        <v>0.0001257928815903142</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.01846496947109699</v>
+        <v>9.641298674978316e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.02222364582121372</v>
+        <v>0.0002638536388985813</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0164918415248394</v>
+        <v>3.116457264695782e-06</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.00362720713019371</v>
+        <v>0.0003567537933122367</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.08263804763555527</v>
+        <v>1.024649100145325e-05</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01202878449112177</v>
+        <v>0.0002086150052491575</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.1073556616902351</v>
+        <v>9.27250730455853e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.02168974652886391</v>
+        <v>8.756144234212115e-05</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.04971266910433769</v>
+        <v>7.449685654137284e-06</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.02956183440983295</v>
+        <v>3.51199705619365e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0005981759168207645</v>
+        <v>0.0003085836942773312</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0255772415548563</v>
+        <v>0.0001325631310464814</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.03284225612878799</v>
+        <v>0.0001932467421283945</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04013307392597198</v>
+        <v>2.301100539625622e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.03543556481599808</v>
+        <v>2.485270670149475e-06</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01334382221102715</v>
+        <v>0.00021666671091225</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.02082892507314682</v>
+        <v>0.0004234141670167446</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001730293035507202</v>
+        <v>7.103556708898395e-05</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01109385117888451</v>
+        <v>0.0002216167631559074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.000213256775168702</v>
+        <v>8.117115066852421e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0002771484141703695</v>
+        <v>0.006788062397390604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006242864765226841</v>
+        <v>0.0005202685133554041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004645331937354058</v>
+        <v>0.001672831480391324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005976908141747117</v>
+        <v>0.002247411059215665</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002794417552649975</v>
+        <v>0.001343720708973706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004218224203214049</v>
+        <v>6.129976827651262e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001132606063038111</v>
+        <v>0.001024784753099084</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000574611418414861</v>
+        <v>0.0001426123344572261</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003153047291561961</v>
+        <v>0.0003562650235835463</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003282669349573553</v>
+        <v>0.005851478781551123</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005827641580253839</v>
+        <v>0.0003411334182601422</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003089102683588862</v>
+        <v>0.0008274443680420518</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000412383844377473</v>
+        <v>0.001412294339388609</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002458765637129545</v>
+        <v>0.001339037087745965</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001390051038470119</v>
+        <v>8.717653690837324e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0008140464196912944</v>
+        <v>0.0001254177186638117</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0007342585595324636</v>
+        <v>3.894808833138086e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0004772153624799103</v>
+        <v>9.907063213177025e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0002997978299390525</v>
+        <v>0.0006956873694434762</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001193948846776038</v>
+        <v>0.000210482714464888</v>
       </c>
       <c r="V14" t="n">
-        <v>0.000347824563505128</v>
+        <v>0.0007009138353168964</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0001168429444078356</v>
+        <v>0.001254660077393055</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0005594101967290044</v>
+        <v>0.0002848459698725492</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0001840968034230173</v>
+        <v>0.000166105484822765</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0002569917705841362</v>
+        <v>0.001234636292792857</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0001848342653829604</v>
+        <v>0.0004192389314994216</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0001447387039661407</v>
+        <v>0.000176253350218758</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.393175787408836e-06</v>
+        <v>0.0002696577284950763</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.068183913361281e-05</v>
+        <v>0.0003460457955952734</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.726108530419879e-05</v>
+        <v>7.749452925054356e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0008089679176919162</v>
+        <v>0.0003656554326880723</v>
       </c>
       <c r="AG14" t="n">
-        <v>4.405602885526605e-05</v>
+        <v>0.0001504960091551766</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0003281510435044765</v>
+        <v>4.311002339818515e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0002777282788883895</v>
+        <v>0.0003695377963595092</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.535145383968484e-05</v>
+        <v>0.0005672528059221804</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.585144001292065e-05</v>
+        <v>0.0009708751458674669</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.821875674882904e-06</v>
+        <v>0.0006354301003739238</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0003872492525260895</v>
+        <v>0.0001166855145129375</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.128563498146832e-05</v>
+        <v>0.0001522952516097575</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0002918077225331217</v>
+        <v>0.0006270452286116779</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0002328165282960981</v>
+        <v>0.0005243479972705245</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.114103987580165e-05</v>
+        <v>5.068192695034668e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0001126639690482989</v>
+        <v>0.0002443056146148592</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0002200729213654995</v>
+        <v>0.0002049975009867921</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.486435449915007e-05</v>
+        <v>6.546442455146462e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0001396776206092909</v>
+        <v>0.004267036449164152</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0003583012730814517</v>
+        <v>0.0001437949540559202</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.763816731516272e-05</v>
+        <v>0.0002683326310943812</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.409799243556336e-05</v>
+        <v>0.0009986970108002424</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.001429102150723338</v>
+        <v>0.000655911338981241</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9.203173976857215e-05</v>
+        <v>0.0003605915699154139</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.0001969206787180156</v>
+        <v>0.0001485201646573842</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0001399923057761043</v>
+        <v>0.0001109309232560918</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.574599006446078e-05</v>
+        <v>0.0004173951456323266</v>
       </c>
       <c r="BD14" t="n">
-        <v>5.802213127026334e-05</v>
+        <v>0.001629539066925645</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.000243916263571009</v>
+        <v>0.001033445238135755</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0004039909108541906</v>
+        <v>0.0002355108445044607</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.147479583276436e-05</v>
+        <v>0.001420099288225174</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0003794543736148626</v>
+        <v>0.0006453137029893696</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0001436322490917519</v>
+        <v>0.0003724122070707381</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0006384502630680799</v>
+        <v>0.0002631075331009924</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0001651247002882883</v>
+        <v>0.0001999879750655964</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0001398865424562246</v>
+        <v>0.0006107053486630321</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.143220470112283e-05</v>
+        <v>0.001155867241322994</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0001198473401018418</v>
+        <v>0.000624251551926136</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.00019262675778009</v>
+        <v>0.0001084687100956216</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.000355458352714777</v>
+        <v>0.0005750969867222011</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0001161443142336793</v>
+        <v>0.0001013930304907262</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0001330419181613252</v>
+        <v>0.0001757729332894087</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0001732063537929207</v>
+        <v>0.0002464959397912025</v>
       </c>
       <c r="BT14" t="n">
-        <v>9.778481035027653e-05</v>
+        <v>0.0003909982042387128</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0001045007084030658</v>
+        <v>0.0001433812431059778</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.493870513513684e-06</v>
+        <v>0.002440851414576173</v>
       </c>
       <c r="BW14" t="n">
-        <v>6.171616405481473e-05</v>
+        <v>0.0005644572665914893</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.82798599882517e-06</v>
+        <v>0.0002264044451294467</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0001569345768075436</v>
+        <v>0.0004995109047740698</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.000939042423851788</v>
+        <v>0.0001882829674286768</v>
       </c>
       <c r="CA14" t="n">
-        <v>4.971918679075316e-05</v>
+        <v>0.0002947131870314479</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0002114791714120656</v>
+        <v>0.0001659547269809991</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0003465806657914072</v>
+        <v>0.000253308069659397</v>
       </c>
       <c r="CD14" t="n">
-        <v>4.697908298112452e-05</v>
+        <v>0.0001349720550933853</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0001050311475410126</v>
+        <v>0.00103107385803014</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0001295549445785582</v>
+        <v>0.0002836918574757874</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0001816353760659695</v>
+        <v>0.0002452794287819415</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0001140254898928106</v>
+        <v>0.0001308146020164713</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0004859911859966815</v>
+        <v>0.0001317678834311664</v>
       </c>
       <c r="CJ14" t="n">
-        <v>7.139101217035204e-05</v>
+        <v>0.0003341020783409476</v>
       </c>
       <c r="CK14" t="n">
-        <v>8.891955076251179e-05</v>
+        <v>0.0001960750669240952</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0001077532724593766</v>
+        <v>9.002475417219102e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.816672662855126e-05</v>
+        <v>0.00148152292240411</v>
       </c>
       <c r="CN14" t="n">
-        <v>6.952650437597185e-05</v>
+        <v>0.0005389873986132443</v>
       </c>
       <c r="CO14" t="n">
-        <v>9.962173498934135e-05</v>
+        <v>0.0001981304958462715</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.0001931050937855616</v>
+        <v>0.0005463762208819389</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0004828193341381848</v>
+        <v>0.000784562318585813</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0003760259423870593</v>
+        <v>0.0007044312660582364</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.0002387162821833044</v>
+        <v>0.001118994667194784</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0001198828031192534</v>
+        <v>0.0007002639467827976</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0001163300330517814</v>
+        <v>0.0003045173361897469</v>
       </c>
       <c r="CV14" t="n">
-        <v>9.234143362846226e-05</v>
+        <v>0.0001028082624543458</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0001461914944229648</v>
+        <v>0.0009183087386190891</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0001349105004919693</v>
+        <v>0.0003545683284755796</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0001217097087646835</v>
+        <v>0.0004865524533670396</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0001260662393178791</v>
+        <v>0.0002183283068006858</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0004789353697560728</v>
+        <v>0.000179987633600831</v>
       </c>
       <c r="DB14" t="n">
-        <v>2.234917883470189e-05</v>
+        <v>0.0002412924804957584</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0002112204092554748</v>
+        <v>0.0003479516017250717</v>
       </c>
       <c r="DD14" t="n">
-        <v>9.231449803337455e-05</v>
+        <v>7.603409358125646e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0002979417622555047</v>
+        <v>0.0005238026496954262</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.095939410333813e-07</v>
+        <v>0.0006508718943223357</v>
       </c>
       <c r="DG14" t="n">
-        <v>8.171932131517678e-05</v>
+        <v>5.246531509328634e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0002289809635840356</v>
+        <v>0.001977031817659736</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0002366768021602184</v>
+        <v>0.001065439661033452</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0004583951085805893</v>
+        <v>0.0002703523787204176</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0004487063270062208</v>
+        <v>0.0005639686132781208</v>
       </c>
       <c r="DL14" t="n">
-        <v>5.470558244269341e-05</v>
+        <v>0.0002065541048068553</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.0004671511705964804</v>
+        <v>0.0003551821573637426</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0002583772293291986</v>
+        <v>0.0003250412410125136</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.44823279697448e-05</v>
+        <v>0.0003017034323420376</v>
       </c>
       <c r="DP14" t="n">
-        <v>6.557849701493979e-05</v>
+        <v>0.0005711772246286273</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0002560655120760202</v>
+        <v>0.0004107607528567314</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0002174276305595413</v>
+        <v>0.0004267902404535562</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.00023298965243157</v>
+        <v>0.0002152969245798886</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.068813435267657e-05</v>
+        <v>0.0002094184892484918</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.500904909335077e-05</v>
+        <v>0.0001920658542076126</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.299789386801422e-05</v>
+        <v>5.475203943205997e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.525599484215491e-06</v>
+        <v>0.0001644006406422704</v>
       </c>
       <c r="DX14" t="n">
-        <v>4.868708856520243e-06</v>
+        <v>0.0004748940991703421</v>
       </c>
       <c r="DY14" t="n">
-        <v>8.138403063639998e-05</v>
+        <v>6.825233867857605e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0001326919009443372</v>
+        <v>8.970191993284971e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0001664261362748221</v>
+        <v>0.0005935552180744708</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.000102214929938782</v>
+        <v>0.0001790811365935951</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0001774064876371995</v>
+        <v>9.13669791771099e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>9.45097126532346e-05</v>
+        <v>0.0001195172662846744</v>
       </c>
       <c r="EE14" t="n">
-        <v>6.964411295484751e-05</v>
+        <v>4.042358341393992e-06</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0001438810868421569</v>
+        <v>0.0005967990728095174</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.0001859394978964701</v>
+        <v>0.001253570197150111</v>
       </c>
       <c r="EH14" t="n">
-        <v>8.878622611518949e-05</v>
+        <v>0.0001913908490678295</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0001386756339343265</v>
+        <v>8.722973143449053e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0005292394780553877</v>
+        <v>0.0002418204967398196</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0004939765785820782</v>
+        <v>5.809215872432105e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.857714414654765e-05</v>
+        <v>0.0001609788741916418</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0002063437132164836</v>
+        <v>0.0002199082373408601</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0001443722430849448</v>
+        <v>3.959932291763835e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0001439791230950505</v>
+        <v>0.0002168589999200776</v>
       </c>
       <c r="EP14" t="n">
-        <v>6.740337994415313e-05</v>
+        <v>7.405025826301426e-05</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0002106070460285991</v>
+        <v>0.0004423432983458042</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0002379797806497663</v>
+        <v>0.0002302950160810724</v>
       </c>
       <c r="ES14" t="n">
-        <v>8.833030005916953e-05</v>
+        <v>7.121325324987993e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0001163517663371749</v>
+        <v>0.0004635045188479125</v>
       </c>
       <c r="EU14" t="n">
-        <v>2.560768552939408e-05</v>
+        <v>0.0003447415074333549</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0001424918737029657</v>
+        <v>0.0009067165665328503</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0001627011224627495</v>
+        <v>0.0005168516072444618</v>
       </c>
       <c r="EX14" t="n">
-        <v>8.69272043928504e-05</v>
+        <v>0.00020006881095469</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0001332987012574449</v>
+        <v>0.0008944897563196719</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.0001400543696945533</v>
+        <v>0.0002752671716734767</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0001698898850008845</v>
+        <v>0.0002048621536232531</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.000140848831506446</v>
+        <v>2.56908515439136e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0004837576998397708</v>
+        <v>0.0002220598398707807</v>
       </c>
       <c r="FD14" t="n">
-        <v>1.207165860250825e-05</v>
+        <v>0.0003616097965277731</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0002085483283735812</v>
+        <v>0.0001761477033142</v>
       </c>
       <c r="FF14" t="n">
-        <v>6.514444976346567e-05</v>
+        <v>0.0001342935720458627</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.888802166329697e-05</v>
+        <v>0.0002327393740415573</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0002136744878953323</v>
+        <v>7.617331721121445e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0001990726887015626</v>
+        <v>0.0003430568613111973</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.0002530671190470457</v>
+        <v>0.0009686864214017987</v>
       </c>
       <c r="FK14" t="n">
-        <v>7.282493606908247e-05</v>
+        <v>0.0005795203032903373</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0001990744494833052</v>
+        <v>0.0004534214967861772</v>
       </c>
       <c r="FM14" t="n">
-        <v>6.565203511854634e-05</v>
+        <v>3.987083618994802e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0002245364739792421</v>
+        <v>0.0001442464417777956</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0002726293751038611</v>
+        <v>0.0006410012720152736</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.000132381625007838</v>
+        <v>0.0009353606146760285</v>
       </c>
       <c r="FQ14" t="n">
-        <v>5.009903543395922e-05</v>
+        <v>0.0009214926394633949</v>
       </c>
       <c r="FR14" t="n">
-        <v>8.221659663831815e-05</v>
+        <v>0.0008270975667983294</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0006629436975345016</v>
+        <v>0.0002423790865577757</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0002540102286729962</v>
+        <v>0.0001743342872941867</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.001037839916534722</v>
+        <v>0.0003871133667416871</v>
       </c>
       <c r="FV14" t="n">
-        <v>5.318757030181587e-05</v>
+        <v>0.0001478217454859987</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0002195671695517376</v>
+        <v>0.0001632447965675965</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.000303908163914457</v>
+        <v>3.599657429731451e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>4.625011933967471e-05</v>
+        <v>0.0008112962241284549</v>
       </c>
       <c r="FZ14" t="n">
-        <v>3.845835453830659e-05</v>
+        <v>0.0002262651978526264</v>
       </c>
       <c r="GA14" t="n">
-        <v>9.603802027413622e-06</v>
+        <v>0.0001037994152284227</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0001898702175822109</v>
+        <v>7.840098987799138e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.233055031159893e-05</v>
+        <v>0.0004117109056096524</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0002030286414083093</v>
+        <v>0.0007938856142573059</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0002416911156615242</v>
+        <v>0.001036171684972942</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0001709113421384245</v>
+        <v>0.0004344294720795006</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0002529430494178087</v>
+        <v>0.0003023425815626979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.004002857021987438</v>
+        <v>2.058714380837046e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0119387386366725</v>
+        <v>0.0009866023901849985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002241493668407202</v>
+        <v>4.456725582713261e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005082519259303808</v>
+        <v>0.0006171261193230748</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003556557465344667</v>
+        <v>0.0001197730598505586</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01750706136226654</v>
+        <v>8.669677481520921e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002264764159917831</v>
+        <v>0.0001150008174590766</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004710743669420481</v>
+        <v>4.820261892746203e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004424523562192917</v>
+        <v>5.167737981537357e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002719719894230366</v>
+        <v>7.600997196277604e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0103719886392355</v>
+        <v>0.0008762187790125608</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001123309950344265</v>
+        <v>2.135581235052086e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00315120117738843</v>
+        <v>0.0005674986750818789</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001979547087103128</v>
+        <v>0.0001662725262576714</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01517032738775015</v>
+        <v>1.592583976162132e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00103647168725729</v>
+        <v>7.592232577735558e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001096895663067698</v>
+        <v>0.0001201984123326838</v>
       </c>
       <c r="R15" t="n">
-        <v>0.005653867498040199</v>
+        <v>1.36018843477359e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00233234791085124</v>
+        <v>6.824116280768067e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0006214972818270326</v>
+        <v>0.0001161544423666783</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002867433067876846</v>
+        <v>6.736408977303654e-06</v>
       </c>
       <c r="V15" t="n">
-        <v>0.003887960454449058</v>
+        <v>6.401594146154821e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004462929908186197</v>
+        <v>6.387772009475157e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002365089487284422</v>
+        <v>2.223954652436078e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.000971513451077044</v>
+        <v>9.17009892873466e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.003845393424853683</v>
+        <v>7.681331044295803e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0008052864577621222</v>
+        <v>8.83682441781275e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002998426556587219</v>
+        <v>8.936501399148256e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0018765430431813</v>
+        <v>0.0001953913451870903</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0007004886865615845</v>
+        <v>1.184344182547648e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.001730722957290709</v>
+        <v>1.813059498090297e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.003648462472483516</v>
+        <v>2.088466317218263e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004135432245675474</v>
+        <v>2.574593418103177e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001263855025172234</v>
+        <v>6.345196015900001e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001302328892052174</v>
+        <v>1.535775663796812e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001035930239595473</v>
+        <v>3.597034083213657e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.000357914948835969</v>
+        <v>2.541487447160762e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.001051417784765363</v>
+        <v>9.909516666084528e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.00126204255502671</v>
+        <v>1.228367455041735e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.000336356635671109</v>
+        <v>2.78607003565412e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0002241956390207633</v>
+        <v>8.777678158367053e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.003069216618314385</v>
+        <v>6.297202344285324e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0004511857114266604</v>
+        <v>7.489058771170676e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001320829149335623</v>
+        <v>2.443620360281784e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0008309644181281328</v>
+        <v>2.496191336831544e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.002533226972445846</v>
+        <v>0.0001037472247844562</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.005272274371236563</v>
+        <v>0.0006030232179909945</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001000894117169082</v>
+        <v>0.0001331372477579862</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0007620760588906705</v>
+        <v>0.000193000043509528</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0004629218019545078</v>
+        <v>3.091126563958824e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.009493673220276833</v>
+        <v>6.489126826636493e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0006572037236765027</v>
+        <v>2.632712130434811e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.743710789829493e-05</v>
+        <v>4.344619446783327e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001233636401593685</v>
+        <v>2.670444882824086e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.001500321784988046</v>
+        <v>4.848256139666773e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.002651275601238012</v>
+        <v>0.0001437909522792324</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0003844479215331376</v>
+        <v>0.0001712354278424755</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.004737306386232376</v>
+        <v>0.0001049090351443738</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.00213311705738306</v>
+        <v>0.000108077801996842</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003288506995886564</v>
+        <v>2.874144047382288e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0002960085403174162</v>
+        <v>6.239317735889927e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.005225284490734339</v>
+        <v>0.0001232745125889778</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0002984727616421878</v>
+        <v>2.83333192783175e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001576760900206864</v>
+        <v>8.444831473752856e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0008461266988888383</v>
+        <v>4.08679261454381e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0003457089187577367</v>
+        <v>6.92580288159661e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.00269414926879108</v>
+        <v>3.666246266220696e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.001365732168778777</v>
+        <v>0.0001548287982586771</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0009791622869670391</v>
+        <v>1.841438461269718e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.001507859444245696</v>
+        <v>3.56006421498023e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.001808361033909023</v>
+        <v>4.315821206546389e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.001041157054714859</v>
+        <v>7.249508053064346e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.001501148333773017</v>
+        <v>7.311454100999981e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.002897563623264432</v>
+        <v>0.0003154189616907388</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0006335947546176612</v>
+        <v>7.389087841147557e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0004089822759851813</v>
+        <v>0.000134873014758341</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.000456914771348238</v>
+        <v>6.045097688911483e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.005456092767417431</v>
+        <v>1.657731445448007e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.000390575616620481</v>
+        <v>4.772068132297136e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>4.935308243148029e-05</v>
+        <v>1.169232291431399e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.003211251925677061</v>
+        <v>6.575268344022334e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.001014515059068799</v>
+        <v>1.539772893011104e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.001980576897040009</v>
+        <v>0.000168110229424201</v>
       </c>
       <c r="CF15" t="n">
-        <v>9.529480303172022e-05</v>
+        <v>3.902295793523081e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.001257261028513312</v>
+        <v>7.015892333583906e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0004766278434544802</v>
+        <v>3.558414755389094e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002434452995657921</v>
+        <v>1.914233325805981e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2.164131728932261e-06</v>
+        <v>2.411348577879835e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0002855574712157249</v>
+        <v>4.792635081685148e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0007198057137429714</v>
+        <v>2.35413208429236e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0006595108425244689</v>
+        <v>0.0002234408457297832</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0002380204095970839</v>
+        <v>4.454784721019678e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0004555436025839299</v>
+        <v>1.845657243393362e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.00109545886516571</v>
+        <v>0.0001562289835419506</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.00401452649384737</v>
+        <v>0.0001793158007785678</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.002705767285078764</v>
+        <v>0.0001103037866414525</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.0005048472085036337</v>
+        <v>0.0001238895347341895</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.001607681391760707</v>
+        <v>0.000167143385624513</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001216538366861641</v>
+        <v>3.422963345656171e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.001109251985326409</v>
+        <v>4.462381639314117e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.002356601180508733</v>
+        <v>0.0001692528312560171</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0001898341433843598</v>
+        <v>6.75083720125258e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0002695968723855913</v>
+        <v>0.000101805584563408</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0002506306627765298</v>
+        <v>3.780703627853654e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.002846512710675597</v>
+        <v>4.079496193298837e-06</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0003517633595038205</v>
+        <v>3.043870128749404e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.00106931256595999</v>
+        <v>1.806661202863324e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0009436821565032005</v>
+        <v>8.83587563293986e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>4.721322329714894e-05</v>
+        <v>0.00012885921751149</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.002249981975182891</v>
+        <v>9.389823389938101e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.001618515234440565</v>
+        <v>1.988440999411978e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0003419640124775469</v>
+        <v>0.0002003082481678575</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.002076116157695651</v>
+        <v>5.551990034291521e-05</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001624344382435083</v>
+        <v>2.365374166402034e-05</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.003211033996194601</v>
+        <v>4.640472616301849e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.00129051529802382</v>
+        <v>5.886787039344199e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.002016801619902253</v>
+        <v>2.441963442834094e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.002694974420592189</v>
+        <v>2.342845982639119e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0009324770071543753</v>
+        <v>6.973365088924766e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0002873208723030984</v>
+        <v>5.043987039243802e-05</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.00114740151911974</v>
+        <v>5.389799116528593e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0009553329437039793</v>
+        <v>0.0001247401523869485</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0006114532588981092</v>
+        <v>9.549231435812544e-06</v>
       </c>
       <c r="DT15" t="n">
-        <v>1.948977296706289e-05</v>
+        <v>1.45676867759903e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001171905547380447</v>
+        <v>4.600985266733915e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.00210719439201057</v>
+        <v>4.964384788763709e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>3.417528932914138e-05</v>
+        <v>6.240425136638805e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>7.177873339969665e-05</v>
+        <v>0.000141421114676632</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.000150707273860462</v>
+        <v>1.8121683751815e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.001336304470896721</v>
+        <v>6.485759513452649e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.001424271031282842</v>
+        <v>5.987809345242567e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0003921725146938115</v>
+        <v>1.759539190970827e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0001745144254527986</v>
+        <v>4.277492189430632e-05</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.001204110216349363</v>
+        <v>9.075358320842497e-06</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.001588178449310362</v>
+        <v>1.131295357481577e-05</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0005218526930548251</v>
+        <v>2.324714478163514e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001833312679082155</v>
+        <v>0.0001219745608977973</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.001976316561922431</v>
+        <v>8.0105361121241e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>8.014170452952385e-05</v>
+        <v>0.0001091891099349596</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.003375308588147163</v>
+        <v>0.0001343280600849539</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002603336237370968</v>
+        <v>4.434493348526303e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0005398794892244041</v>
+        <v>2.397709431534167e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.0009163481881842017</v>
+        <v>3.24309803545475e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.001438154140487313</v>
+        <v>1.993652040255256e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0005964018637314439</v>
+        <v>1.328662619926035e-07</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0005943517899140716</v>
+        <v>0.0001928494602907449</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.001034736051224172</v>
+        <v>9.268540452467278e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0001504094107076526</v>
+        <v>6.527938967337832e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0009018750861287117</v>
+        <v>3.212432056898251e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0001972233003471047</v>
+        <v>2.09929912671214e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001500795828178525</v>
+        <v>7.547536370111629e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0009220956126227975</v>
+        <v>4.480478310142644e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0004269263008609414</v>
+        <v>3.683211252791807e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001252533053047955</v>
+        <v>3.301293327240273e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.002181746065616608</v>
+        <v>0.0001771846582414582</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0006989140529185534</v>
+        <v>4.620844993041828e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>6.150382978376001e-05</v>
+        <v>8.301632624352351e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0005726203671656549</v>
+        <v>2.41766592807835e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0028239821549505</v>
+        <v>7.571634341729805e-07</v>
       </c>
       <c r="FD15" t="n">
-        <v>5.934743967372924e-05</v>
+        <v>2.499610855011269e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0007576307980343699</v>
+        <v>2.552679688960779e-06</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0008837691857479513</v>
+        <v>1.963186514331028e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.002020985819399357</v>
+        <v>2.297506580362096e-05</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.003881284035742283</v>
+        <v>8.760490891290829e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.002603478264063597</v>
+        <v>8.097208046820015e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.000767504854593426</v>
+        <v>6.634354213019833e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>7.169274613261223e-05</v>
+        <v>6.755127833457664e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.002803483279421926</v>
+        <v>3.343030039104633e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0006542019546031952</v>
+        <v>2.439192030578852e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0001906685065478086</v>
+        <v>2.715006485232152e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0005385020049288869</v>
+        <v>2.335617500648368e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0006968217203393579</v>
+        <v>0.0001043900119839236</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.001616738038137555</v>
+        <v>4.411645568325184e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0006256082560867071</v>
+        <v>0.0001440420746803284</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.009479805827140808</v>
+        <v>5.019141099182889e-06</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.003972028382122517</v>
+        <v>7.356984497164376e-06</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.006034985184669495</v>
+        <v>9.261511149816215e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0001511986047262326</v>
+        <v>2.017623592109885e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.002528834622353315</v>
+        <v>3.709663724293932e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0009771622717380524</v>
+        <v>4.451838321983814e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.002163972705602646</v>
+        <v>9.112866246141493e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>3.448700590524822e-05</v>
+        <v>1.549049193272367e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0004305098264012486</v>
+        <v>5.062611671746708e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.001242266735062003</v>
+        <v>2.993959788000211e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.002017908496782184</v>
+        <v>1.314523069595452e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001142763998359442</v>
+        <v>0.0001151762844529003</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.002611634088680148</v>
+        <v>0.0001972179743461311</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.002982454374432564</v>
+        <v>3.116689913440496e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.001054165884852409</v>
+        <v>7.787378126522526e-05</v>
       </c>
     </row>
     <row r="16">
@@ -9539,571 +9539,571 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02391031384468079</v>
+        <v>8.153043745551258e-05</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01736492849886417</v>
+        <v>0.003475620644167066</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03410817310214043</v>
+        <v>7.31020190869458e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02492481656372547</v>
+        <v>0.00107965525239706</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003794481977820396</v>
+        <v>0.000738389091566205</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1305144280195236</v>
+        <v>0.001429045805707574</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04116804152727127</v>
+        <v>0.0004112602618988603</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1104676797986031</v>
+        <v>0.001133183599449694</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05429944396018982</v>
+        <v>0.0006260884110815823</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01670656725764275</v>
+        <v>0.0005953273503109813</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01462800242006779</v>
+        <v>0.003055971348658204</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0431223027408123</v>
+        <v>0.0002456163638271391</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0304019320756197</v>
+        <v>0.0004427119856700301</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01884361170232296</v>
+        <v>0.0001459080813219771</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1120991110801697</v>
+        <v>0.00178953749127686</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04194336757063866</v>
+        <v>0.0005202017491683364</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09749002754688263</v>
+        <v>4.459411138668656e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06451249867677689</v>
+        <v>0.0007471776916645467</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0006582359783351421</v>
+        <v>0.0001608217426110059</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00496076513081789</v>
+        <v>0.0002526182506699115</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003167974296957254</v>
+        <v>0.0003081365721300244</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0001308924984186888</v>
+        <v>0.0003347779274918139</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01067856792360544</v>
+        <v>0.0004795514978468418</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01988054439425468</v>
+        <v>0.0003482208703644574</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.006299105007201433</v>
+        <v>0.0002416503848508</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.003588267602026463</v>
+        <v>0.0006584924994967878</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01408772356808186</v>
+        <v>0.0004698206030298024</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01301253493875265</v>
+        <v>0.0001624104043003172</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02065358683466911</v>
+        <v>0.0001873312867246568</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.005780156701803207</v>
+        <v>0.0002977538388222456</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.004435988143086433</v>
+        <v>0.0001127685463870876</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.03383829072117805</v>
+        <v>0.0003115542931482196</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.001013766042888165</v>
+        <v>9.341518307337537e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0368485189974308</v>
+        <v>5.506776506081223e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.02075358107686043</v>
+        <v>0.0004439088224899024</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.007492978125810623</v>
+        <v>0.0001001452546915971</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.005432683974504471</v>
+        <v>0.0004641771083697677</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.009165202267467976</v>
+        <v>0.0005355927860364318</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.01441687345504761</v>
+        <v>5.922118361922912e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.003732334822416306</v>
+        <v>0.000147799146361649</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.01623038947582245</v>
+        <v>4.252813596394844e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.02395018935203552</v>
+        <v>0.0004354912089183927</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0003949922975152731</v>
+        <v>0.0002263356582261622</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0009386067977175117</v>
+        <v>0.0002774936147034168</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.001916458830237389</v>
+        <v>0.0004297738487366587</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.002607491798698902</v>
+        <v>7.829202513676137e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.004416895098984241</v>
+        <v>0.002264845184981823</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.02405229955911636</v>
+        <v>0.0005460645188577473</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.004205081146210432</v>
+        <v>0.0003504250198602676</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.02010542154312134</v>
+        <v>0.0003412513178773224</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.07697319984436035</v>
+        <v>0.0008532890351489186</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.002682674210518599</v>
+        <v>0.0007423705537803471</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.04739424586296082</v>
+        <v>0.0006455878610722721</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.01887923292815685</v>
+        <v>0.0006363975116983056</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.003795981407165527</v>
+        <v>4.939211066812277e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.01421160344034433</v>
+        <v>0.0007691241335123777</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.01210342161357403</v>
+        <v>0.0008923534769564867</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.01871107518672943</v>
+        <v>0.0002737119793891907</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.003755338024348021</v>
+        <v>0.000174642467754893</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.01320507191121578</v>
+        <v>0.0005163059686310589</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.02855058759450912</v>
+        <v>0.0002167216007364914</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.03571313247084618</v>
+        <v>0.0005327627877704799</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.01021723728626966</v>
+        <v>0.00041542062535882</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.005819148384034634</v>
+        <v>0.0001827408996177837</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.003638119902461767</v>
+        <v>0.0002605878980830312</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.01937940903007984</v>
+        <v>0.000363129423931241</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.004275126848369837</v>
+        <v>8.713174611330032e-05</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.01858256943523884</v>
+        <v>2.94028504868038e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.006297196261584759</v>
+        <v>0.0002180162555305287</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01572531647980213</v>
+        <v>0.0004294584505259991</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.009368499740958214</v>
+        <v>0.000111398876470048</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.003567146370187402</v>
+        <v>0.0001659451518207788</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.01935425773262978</v>
+        <v>1.972864993149415e-05</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0005142117734067142</v>
+        <v>0.001246946048922837</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.007717383559793234</v>
+        <v>0.0003675366169773042</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.007541042752563953</v>
+        <v>3.134974394924939e-05</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.02243918180465698</v>
+        <v>0.0002764226519502699</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.02797465026378632</v>
+        <v>0.0004191215266473591</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.01154702715575695</v>
+        <v>1.239986886503175e-05</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.03696972876787186</v>
+        <v>0.0001257985277334228</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.01691574789583683</v>
+        <v>0.0004661374841816723</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.002674209186807275</v>
+        <v>5.100181442685425e-05</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.02210765145719051</v>
+        <v>0.0006262257229536772</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.01078497711569071</v>
+        <v>0.0003285881830379367</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.006484824698418379</v>
+        <v>0.0002151223015971482</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.003084151539951563</v>
+        <v>0.0001194702563225292</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.02453692071139812</v>
+        <v>7.398489833576605e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.005277273710817099</v>
+        <v>0.0002292517892783508</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.01656455919146538</v>
+        <v>0.0001326678320765495</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.008816353045403957</v>
+        <v>0.0003583545912988484</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.01026006415486336</v>
+        <v>0.0004817015142180026</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.01594904810190201</v>
+        <v>0.0004817630688194185</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.009346884675323963</v>
+        <v>0.0001473407173762098</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.0006869514472782612</v>
+        <v>0.0008592132362537086</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.04552901536226273</v>
+        <v>0.0005278708413243294</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.01668354123830795</v>
+        <v>0.0004090686561539769</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.0157003365457058</v>
+        <v>0.0006902486202307045</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.006853646598756313</v>
+        <v>0.000524751259945333</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.02008295990526676</v>
+        <v>7.990214362507686e-05</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.003376760054379702</v>
+        <v>5.52021010662429e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.02513928897678852</v>
+        <v>0.0005291368579491973</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.01267519872635603</v>
+        <v>0.0003355216176714748</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.003803608007729053</v>
+        <v>0.000413659552577883</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.004218951798975468</v>
+        <v>0.0001768590009305626</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.02498861216008663</v>
+        <v>6.107371882535517e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.000310798641294241</v>
+        <v>0.0002497613895684481</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.02208901941776276</v>
+        <v>0.0002604143228381872</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.01026058010756969</v>
+        <v>0.0003059135051444173</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.01799558103084564</v>
+        <v>0.000394676229916513</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.006912249606102705</v>
+        <v>0.0002832130994647741</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.01166875101625919</v>
+        <v>4.315715341363102e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.006130881141871214</v>
+        <v>0.001631285645999014</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.02043820358812809</v>
+        <v>0.0008669724920764565</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.01171838957816362</v>
+        <v>0.001159523730166256</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.01092539448291063</v>
+        <v>0.0005223337793722749</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.01128804683685303</v>
+        <v>0.0005551115609705448</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.02372939512133598</v>
+        <v>0.0006020250730216503</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.01109779626131058</v>
+        <v>0.0001854960719356313</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0159803107380867</v>
+        <v>4.766117854160257e-06</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.003675913205370307</v>
+        <v>0.0003492338582873344</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.01772982627153397</v>
+        <v>0.0001101482921512797</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.002291347365826368</v>
+        <v>1.902408257592469e-06</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.01598322205245495</v>
+        <v>0.0001391483674524352</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.006501655094325542</v>
+        <v>0.0002764716336969286</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.00197130162268877</v>
+        <v>0.0002138233830919489</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.00575923128053546</v>
+        <v>0.0002526120224501938</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.01193207688629627</v>
+        <v>0.0001583572739036754</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.007739386521279812</v>
+        <v>0.0002104490267811343</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.003734230296686292</v>
+        <v>0.0004864131333306432</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.007179575506597757</v>
+        <v>0.0002223165647592396</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0007635271176695824</v>
+        <v>6.416747783077881e-05</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.003559496253728867</v>
+        <v>0.0002265140356030315</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.01337282545864582</v>
+        <v>1.508599962107837e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.01360978838056326</v>
+        <v>0.0001283274468732998</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.003336056135594845</v>
+        <v>0.0005487574962899089</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.01116131525486708</v>
+        <v>0.0002120643621310592</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.01913736574351788</v>
+        <v>0.0009133368730545044</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.005947836209088564</v>
+        <v>3.543821367202327e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.004922065883874893</v>
+        <v>6.784965808037668e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.01815639063715935</v>
+        <v>0.0004480790230445564</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.006884947419166565</v>
+        <v>0.0001711763616185635</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.0002393158210907131</v>
+        <v>0.0003094092535320669</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.02585764043033123</v>
+        <v>3.674428444355726e-05</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.01502279005944729</v>
+        <v>0.0001651004422456026</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.005877097137272358</v>
+        <v>3.656238550320268e-05</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.008775725960731506</v>
+        <v>0.0002551807265263051</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.01414552051573992</v>
+        <v>0.0007744453032501042</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.01146121323108673</v>
+        <v>0.0007438409957103431</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.01756118424236774</v>
+        <v>0.0004645500448532403</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.01725663617253304</v>
+        <v>0.0002704156213440001</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.01557827740907669</v>
+        <v>0.0006362966960296035</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.001119066029787064</v>
+        <v>0.0006512175896205008</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.006071546580642462</v>
+        <v>8.113745570881292e-05</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.005923180375248194</v>
+        <v>1.838523894548416e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.02193379588425159</v>
+        <v>0.000535500468686223</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.01400125212967396</v>
+        <v>0.0002838920918293297</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.004643945023417473</v>
+        <v>0.0001464377128286287</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.00144187081605196</v>
+        <v>0.0002086299355141819</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.024446040391922</v>
+        <v>8.628469367977232e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.002355815144255757</v>
+        <v>0.0004377941659186035</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.02232589386403561</v>
+        <v>0.0002604076871648431</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.005840767174959183</v>
+        <v>0.0004246577445883304</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.007585864048451185</v>
+        <v>0.0001662899885559455</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.01656011864542961</v>
+        <v>3.516658762237057e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.007176714949309826</v>
+        <v>0.0007499672938138247</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.003119503613561392</v>
+        <v>0.0003010205982718617</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.003263221587985754</v>
+        <v>0.0001266548642888665</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.02893528714776039</v>
+        <v>0.0001752383832354099</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.003382033901289105</v>
+        <v>0.0002981629513669759</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.01673286035656929</v>
+        <v>0.0002524431911297143</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.001136051490902901</v>
+        <v>0.000246103445533663</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01012699026614428</v>
+        <v>0.000244879862293601</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.01289212796837091</v>
+        <v>0.0003069716040045023</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.004104061052203178</v>
+        <v>0.0007004642975516617</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.02869679220020771</v>
+        <v>0.0005671463441103697</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.02486378699541092</v>
+        <v>0.0007643052958883345</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.05514129996299744</v>
+        <v>0.0003262875834479928</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.006040723063051701</v>
+        <v>0.0005349087296053767</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.03735079616308212</v>
+        <v>9.82500787358731e-05</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.007327110506594181</v>
+        <v>0.0001760334416758269</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.003421670757234097</v>
+        <v>0.0007830619579181075</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.00906641036272049</v>
+        <v>0.0002250848920084536</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.002250535413622856</v>
+        <v>0.0002258459862787277</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.006054030731320381</v>
+        <v>0.0001955795451067388</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.01889265514910221</v>
+        <v>0.000274924241239205</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.01912137679755688</v>
+        <v>0.0004641708510462195</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.01501505263149738</v>
+        <v>0.001046423800289631</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0003746319562196732</v>
+        <v>0.0001224839506903663</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.01492738071829081</v>
+        <v>0.0001465395180275664</v>
       </c>
     </row>
     <row r="18">
